--- a/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
+++ b/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedb0\Documents\debt-trap\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580B37E-DC82-4EDD-A2FE-4CCDE98EBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B560AC-DA3C-4DD1-9450-5A8F3D772D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-48" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Transposed" sheetId="3" r:id="rId2"/>
-    <sheet name="Series - Metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="China Debt Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Fixed Data" sheetId="5" r:id="rId4"/>
+    <sheet name="DTGDP" sheetId="6" r:id="rId5"/>
+    <sheet name="Series - Metadata" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
   <si>
     <t>1984 [YR1984]</t>
   </si>
@@ -267,16 +270,54 @@
   </si>
   <si>
     <t>Last Updated: 12/06/2022</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka (Excl. China)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan (Excl. China)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan GDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRT Database (2021)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.000E+00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,13 +332,26 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,18 +363,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,6 +399,2693 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Total Debt in USD</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fixed Data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sri Lanka (Excl. China)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fixed Data'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13889697860.300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16007554695.200001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18901236052.799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20241118248.200001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23919685229.199997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33019282191.799999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35681593961.800003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37955067333.099998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39401410850.599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41981639247.099998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45684008762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7418-41E4-9A75-FB49299FA0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fixed Data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sri Lanka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fixed Data'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14832997860.300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16989554695.200001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22131510244.799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24261126344.200001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28705684359.199997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38084294653.800003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41158781063.800003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45502518559.099998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46621016612.599998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49198473257.099998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52989821373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7418-41E4-9A75-FB49299FA0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fixed Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakistan (Excl. China)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fixed Data'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>41202146845.900002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48695219077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54654404991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60941531765.099998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62118975277.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60358581325.599998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55858227816.699997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59063848958.699997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62625461004.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67415145922.599998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80665883265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7418-41E4-9A75-FB49299FA0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fixed Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakistan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fixed Data'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42897535649.150002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51342457153.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58027363736.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66147457780.787498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67217853763.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65310435603.849998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60654083893.887497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72013166673.824997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77919609141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92310284076.068756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108298686335.6875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7418-41E4-9A75-FB49299FA0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1844035823"/>
+        <c:axId val="1844049967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1844035823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844049967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844049967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844035823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Debt-to-GDP Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DTGDP!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sri Lanka (Excl. China)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DTGDP!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.37496147343087766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34349501513239777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39285091457194521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35692326306118849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36648973032619853</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48260398707668922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48038550240047395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47855390524889047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48999416567925186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51482156386701983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52301150297659937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-739C-46FF-A5FA-36E18371B5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DTGDP!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sri Lanka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DTGDP!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.40042647356585592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36456707212565986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45999023641843162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42781037461117971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4398192709822728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55663331317031828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55412551750609207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57371543472740572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57977685684474956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60332172340887347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60665179938865232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-739C-46FF-A5FA-36E18371B5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DTGDP!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakistan (Excl. China)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DTGDP!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.27042272250232996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28501237366039811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32556607589575576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34397983679204813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29083551172116412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2689968149493725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24158252305919087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24170734674804897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23146949616530407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24193050877464964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26451993515372912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-739C-46FF-A5FA-36E18371B5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DTGDP!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pakistan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DTGDP!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.28155009549067356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30050661769547504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34565816075502603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37336428987947745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31470800683500477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2910654752738609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26232423035355162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29469991804676277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28799808224914625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33127086926869698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35513354998717012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-739C-46FF-A5FA-36E18371B5BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1187445487"/>
+        <c:axId val="1187440079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187445487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187440079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1187440079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187445487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4285E302-1887-47EB-A707-BD8197E0E1E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD79351-1367-41FE-A741-DD029D0822AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AW5"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1420,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826CFFCE-AA10-419F-A115-E712556E3437}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1979,189 +4732,189 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="8">
         <v>14161321567.6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="8">
         <v>271623707.30000001</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="8">
         <v>42306089047.400002</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="8">
         <v>1103942201.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="8">
         <v>16320821885.1</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>313267189.89999998</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="8">
         <v>49826301249</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="8">
         <v>1131082172</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>19504201128</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="8">
         <v>602965075.20000005</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="8">
         <v>56662922386.199997</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="8">
         <v>2008517395.2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="8">
         <v>21684210688.5</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="8">
         <v>1443092440.3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="8">
         <v>63124246853.5</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="8">
         <v>2182715088.4000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="8">
         <v>25795379781.099998</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="8">
         <v>1875694551.9000001</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="8">
         <v>64742561800.199997</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="8">
         <v>2623586522.6999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="8">
         <v>35735908567.5</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <v>2716626375.6999998</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="8">
         <v>63669520213.599998</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="8">
         <v>3310938888</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="8">
         <v>39314598514.400002</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="8">
         <v>3633004552.5999999</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="8">
         <v>60087820820.5</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="8">
         <v>4229593003.8000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="8">
         <v>42262761571.599998</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="8">
         <v>4307694238.5</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="8">
         <v>64202720545.199997</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="8">
         <v>5138871586.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="8">
         <v>43925393891.099998</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="8">
         <v>4523983040.5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="8">
         <v>68614186760.199997</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="8">
         <v>5988725755.6999998</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="8">
         <v>46661458616.199997</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="8">
         <v>4679819369.1000004</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="8">
         <v>75052145049.5</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="8">
         <v>7636999126.8999996</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <v>50765545978.699997</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="8">
         <v>5081537216.6999998</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="8">
         <v>91662069234.5</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="8">
         <v>10996185969.5</v>
       </c>
     </row>
@@ -2257,10 +5010,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C773F43-800D-4F57-9BC6-72125D9A852F}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5024000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>30938000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5228000000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>36599000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5644000000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>40012000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6093000000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>37369000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7142000000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>40572000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7064000000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40565000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7571000000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>41543000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7884000000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43437000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8240000000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50107000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8271000000.000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>52256000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9468000000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>52426000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10367000000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>59556000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11176000000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>63727000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11948000000</v>
+      </c>
+      <c r="E15" s="5">
+        <v>67441999999.999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="5">
+        <v>13781000000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>67998000000.000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5">
+        <v>14635000000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>79451000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>16050999999.999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>82968000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17888000000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>81806000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5">
+        <v>18430000000</v>
+      </c>
+      <c r="E20" s="5">
+        <v>81490000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18532000000</v>
+      </c>
+      <c r="E21" s="5">
+        <v>82514000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2374003.75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>19371000000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>79705000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>789556625.875</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18610000000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>77931000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>808461700.5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>19585000000</v>
+      </c>
+      <c r="E24" s="5">
+        <v>77937000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1268858265.875</v>
+      </c>
+      <c r="D25" s="5">
+        <v>21621000000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>89727000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6300000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1268825885.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>23655000000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>105612000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3">
+        <v>313300000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1315456168.375</v>
+      </c>
+      <c r="D27" s="5">
+        <v>27945000000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>118481000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3">
+        <v>943300000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1774863503.125</v>
+      </c>
+      <c r="D28" s="5">
+        <v>32359000000</v>
+      </c>
+      <c r="E28" s="5">
+        <v>137229000000.00002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3">
+        <v>943300000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1695388803.25</v>
+      </c>
+      <c r="D29" s="5">
+        <v>37043000000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>152362000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>982000000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2647238076.125</v>
+      </c>
+      <c r="D30" s="5">
+        <v>46602000000</v>
+      </c>
+      <c r="E30" s="5">
+        <v>170853000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3230274192</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3372958745.75</v>
+      </c>
+      <c r="D31" s="5">
+        <v>48113000000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>167875000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4020008096</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5205926015.6875</v>
+      </c>
+      <c r="D32" s="5">
+        <v>56710000000</v>
+      </c>
+      <c r="E32" s="5">
+        <v>177166000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4785999130</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5098878486.375</v>
+      </c>
+      <c r="D33" s="5">
+        <v>65266999999.999992</v>
+      </c>
+      <c r="E33" s="5">
+        <v>213588000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5065012462</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4951854278.25</v>
+      </c>
+      <c r="D34" s="5">
+        <v>68419000000</v>
+      </c>
+      <c r="E34" s="5">
+        <v>224384000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5477187102</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4795856077.1875</v>
+      </c>
+      <c r="D35" s="5">
+        <v>74277000000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>231218000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7547451226</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12949317715.125</v>
+      </c>
+      <c r="D36" s="5">
+        <v>79312000000</v>
+      </c>
+      <c r="E36" s="5">
+        <v>244361000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7219605762</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15294148136.5</v>
+      </c>
+      <c r="D37" s="5">
+        <v>80412000000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>270555999999.99997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3">
+        <v>7216834010</v>
+      </c>
+      <c r="C38" s="3">
+        <v>24895138153.46875</v>
+      </c>
+      <c r="D38" s="5">
+        <v>81546000000</v>
+      </c>
+      <c r="E38" s="5">
+        <v>278655000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7305812611</v>
+      </c>
+      <c r="C39" s="3">
+        <v>27632803070.6875</v>
+      </c>
+      <c r="D39" s="5">
+        <v>87348000000</v>
+      </c>
+      <c r="E39" s="5">
+        <v>304952000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540E3EB7-E3EB-41FD-B5AF-37BF44C3F5A0}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:U69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Transposed!B33-Transposed!C33</f>
+        <v>13889697860.300001</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2 + 'China Debt Data'!B29</f>
+        <v>14832997860.300001</v>
+      </c>
+      <c r="D2" s="3">
+        <f>Transposed!D33-Transposed!E33</f>
+        <v>41202146845.900002</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2 + 'China Debt Data'!C29</f>
+        <v>42897535649.150002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Transposed!B34-Transposed!C34</f>
+        <v>16007554695.200001</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3 + 'China Debt Data'!B30</f>
+        <v>16989554695.200001</v>
+      </c>
+      <c r="D3" s="3">
+        <f>Transposed!D34-Transposed!E34</f>
+        <v>48695219077</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3 + 'China Debt Data'!C30</f>
+        <v>51342457153.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Transposed!B35-Transposed!C35</f>
+        <v>18901236052.799999</v>
+      </c>
+      <c r="C4" s="3">
+        <f>B4 + 'China Debt Data'!B31</f>
+        <v>22131510244.799999</v>
+      </c>
+      <c r="D4" s="3">
+        <f>Transposed!D35-Transposed!E35</f>
+        <v>54654404991</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4 + 'China Debt Data'!C31</f>
+        <v>58027363736.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Transposed!B36-Transposed!C36</f>
+        <v>20241118248.200001</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5 + 'China Debt Data'!B32</f>
+        <v>24261126344.200001</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Transposed!D36-Transposed!E36</f>
+        <v>60941531765.099998</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5 + 'China Debt Data'!C32</f>
+        <v>66147457780.787498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Transposed!B37-Transposed!C37</f>
+        <v>23919685229.199997</v>
+      </c>
+      <c r="C6" s="3">
+        <f>B6 + 'China Debt Data'!B33</f>
+        <v>28705684359.199997</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Transposed!D37-Transposed!E37</f>
+        <v>62118975277.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6 + 'China Debt Data'!C33</f>
+        <v>67217853763.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Transposed!B38-Transposed!C38</f>
+        <v>33019282191.799999</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B7 + 'China Debt Data'!B34</f>
+        <v>38084294653.800003</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Transposed!D38-Transposed!E38</f>
+        <v>60358581325.599998</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7 + 'China Debt Data'!C34</f>
+        <v>65310435603.849998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Transposed!B39-Transposed!C39</f>
+        <v>35681593961.800003</v>
+      </c>
+      <c r="C8" s="3">
+        <f>B8 + 'China Debt Data'!B35</f>
+        <v>41158781063.800003</v>
+      </c>
+      <c r="D8" s="3">
+        <f>Transposed!D39-Transposed!E39</f>
+        <v>55858227816.699997</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8 + 'China Debt Data'!C35</f>
+        <v>60654083893.887497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Transposed!B40-Transposed!C40</f>
+        <v>37955067333.099998</v>
+      </c>
+      <c r="C9" s="3">
+        <f>B9 + 'China Debt Data'!B36</f>
+        <v>45502518559.099998</v>
+      </c>
+      <c r="D9" s="3">
+        <f>Transposed!D40-Transposed!E40</f>
+        <v>59063848958.699997</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9 + 'China Debt Data'!C36</f>
+        <v>72013166673.824997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Transposed!B41-Transposed!C41</f>
+        <v>39401410850.599998</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10 + 'China Debt Data'!B37</f>
+        <v>46621016612.599998</v>
+      </c>
+      <c r="D10" s="3">
+        <f>Transposed!D41-Transposed!E41</f>
+        <v>62625461004.5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10 + 'China Debt Data'!C37</f>
+        <v>77919609141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Transposed!B42-Transposed!C42</f>
+        <v>41981639247.099998</v>
+      </c>
+      <c r="C11" s="3">
+        <f>B11 + 'China Debt Data'!B38</f>
+        <v>49198473257.099998</v>
+      </c>
+      <c r="D11" s="3">
+        <f>Transposed!D42-Transposed!E42</f>
+        <v>67415145922.599998</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11 + 'China Debt Data'!C38</f>
+        <v>92310284076.068756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Transposed!B43-Transposed!C43</f>
+        <v>45684008762</v>
+      </c>
+      <c r="C12" s="3">
+        <f>B12 + 'China Debt Data'!B39</f>
+        <v>52989821373</v>
+      </c>
+      <c r="D12" s="3">
+        <f>Transposed!D43-Transposed!E43</f>
+        <v>80665883265</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12 + 'China Debt Data'!C39</f>
+        <v>108298686335.6875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCAAF8D-9A7C-4B6D-AD21-46CB1C666DDC}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="12">
+        <f>'Fixed Data'!B2/'China Debt Data'!$D29</f>
+        <v>0.37496147343087766</v>
+      </c>
+      <c r="C2" s="12">
+        <f>'Fixed Data'!C2/'China Debt Data'!$D29</f>
+        <v>0.40042647356585592</v>
+      </c>
+      <c r="D2" s="12">
+        <f>'Fixed Data'!D2/'China Debt Data'!$E29</f>
+        <v>0.27042272250232996</v>
+      </c>
+      <c r="E2" s="12">
+        <f>'Fixed Data'!E2/'China Debt Data'!$E29</f>
+        <v>0.28155009549067356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="12">
+        <f>'Fixed Data'!B3/'China Debt Data'!$D30</f>
+        <v>0.34349501513239777</v>
+      </c>
+      <c r="C3" s="12">
+        <f>'Fixed Data'!C3/'China Debt Data'!$D30</f>
+        <v>0.36456707212565986</v>
+      </c>
+      <c r="D3" s="12">
+        <f>'Fixed Data'!D3/'China Debt Data'!$E30</f>
+        <v>0.28501237366039811</v>
+      </c>
+      <c r="E3" s="12">
+        <f>'Fixed Data'!E3/'China Debt Data'!$E30</f>
+        <v>0.30050661769547504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="12">
+        <f>'Fixed Data'!B4/'China Debt Data'!$D31</f>
+        <v>0.39285091457194521</v>
+      </c>
+      <c r="C4" s="12">
+        <f>'Fixed Data'!C4/'China Debt Data'!$D31</f>
+        <v>0.45999023641843162</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'Fixed Data'!D4/'China Debt Data'!$E31</f>
+        <v>0.32556607589575576</v>
+      </c>
+      <c r="E4" s="12">
+        <f>'Fixed Data'!E4/'China Debt Data'!$E31</f>
+        <v>0.34565816075502603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="12">
+        <f>'Fixed Data'!B5/'China Debt Data'!$D32</f>
+        <v>0.35692326306118849</v>
+      </c>
+      <c r="C5" s="12">
+        <f>'Fixed Data'!C5/'China Debt Data'!$D32</f>
+        <v>0.42781037461117971</v>
+      </c>
+      <c r="D5" s="12">
+        <f>'Fixed Data'!D5/'China Debt Data'!$E32</f>
+        <v>0.34397983679204813</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'Fixed Data'!E5/'China Debt Data'!$E32</f>
+        <v>0.37336428987947745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="12">
+        <f>'Fixed Data'!B6/'China Debt Data'!$D33</f>
+        <v>0.36648973032619853</v>
+      </c>
+      <c r="C6" s="12">
+        <f>'Fixed Data'!C6/'China Debt Data'!$D33</f>
+        <v>0.4398192709822728</v>
+      </c>
+      <c r="D6" s="12">
+        <f>'Fixed Data'!D6/'China Debt Data'!$E33</f>
+        <v>0.29083551172116412</v>
+      </c>
+      <c r="E6" s="12">
+        <f>'Fixed Data'!E6/'China Debt Data'!$E33</f>
+        <v>0.31470800683500477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="12">
+        <f>'Fixed Data'!B7/'China Debt Data'!$D34</f>
+        <v>0.48260398707668922</v>
+      </c>
+      <c r="C7" s="12">
+        <f>'Fixed Data'!C7/'China Debt Data'!$D34</f>
+        <v>0.55663331317031828</v>
+      </c>
+      <c r="D7" s="12">
+        <f>'Fixed Data'!D7/'China Debt Data'!$E34</f>
+        <v>0.2689968149493725</v>
+      </c>
+      <c r="E7" s="12">
+        <f>'Fixed Data'!E7/'China Debt Data'!$E34</f>
+        <v>0.2910654752738609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="12">
+        <f>'Fixed Data'!B8/'China Debt Data'!$D35</f>
+        <v>0.48038550240047395</v>
+      </c>
+      <c r="C8" s="12">
+        <f>'Fixed Data'!C8/'China Debt Data'!$D35</f>
+        <v>0.55412551750609207</v>
+      </c>
+      <c r="D8" s="12">
+        <f>'Fixed Data'!D8/'China Debt Data'!$E35</f>
+        <v>0.24158252305919087</v>
+      </c>
+      <c r="E8" s="12">
+        <f>'Fixed Data'!E8/'China Debt Data'!$E35</f>
+        <v>0.26232423035355162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="12">
+        <f>'Fixed Data'!B9/'China Debt Data'!$D36</f>
+        <v>0.47855390524889047</v>
+      </c>
+      <c r="C9" s="12">
+        <f>'Fixed Data'!C9/'China Debt Data'!$D36</f>
+        <v>0.57371543472740572</v>
+      </c>
+      <c r="D9" s="12">
+        <f>'Fixed Data'!D9/'China Debt Data'!$E36</f>
+        <v>0.24170734674804897</v>
+      </c>
+      <c r="E9" s="12">
+        <f>'Fixed Data'!E9/'China Debt Data'!$E36</f>
+        <v>0.29469991804676277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="12">
+        <f>'Fixed Data'!B10/'China Debt Data'!$D37</f>
+        <v>0.48999416567925186</v>
+      </c>
+      <c r="C10" s="12">
+        <f>'Fixed Data'!C10/'China Debt Data'!$D37</f>
+        <v>0.57977685684474956</v>
+      </c>
+      <c r="D10" s="12">
+        <f>'Fixed Data'!D10/'China Debt Data'!$E37</f>
+        <v>0.23146949616530407</v>
+      </c>
+      <c r="E10" s="12">
+        <f>'Fixed Data'!E10/'China Debt Data'!$E37</f>
+        <v>0.28799808224914625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="12">
+        <f>'Fixed Data'!B11/'China Debt Data'!$D38</f>
+        <v>0.51482156386701983</v>
+      </c>
+      <c r="C11" s="12">
+        <f>'Fixed Data'!C11/'China Debt Data'!$D38</f>
+        <v>0.60332172340887347</v>
+      </c>
+      <c r="D11" s="12">
+        <f>'Fixed Data'!D11/'China Debt Data'!$E38</f>
+        <v>0.24193050877464964</v>
+      </c>
+      <c r="E11" s="12">
+        <f>'Fixed Data'!E11/'China Debt Data'!$E38</f>
+        <v>0.33127086926869698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="12">
+        <f>'Fixed Data'!B12/'China Debt Data'!$D39</f>
+        <v>0.52301150297659937</v>
+      </c>
+      <c r="C12" s="12">
+        <f>'Fixed Data'!C12/'China Debt Data'!$D39</f>
+        <v>0.60665179938865232</v>
+      </c>
+      <c r="D12" s="12">
+        <f>'Fixed Data'!D12/'China Debt Data'!$E39</f>
+        <v>0.26451993515372912</v>
+      </c>
+      <c r="E12" s="12">
+        <f>'Fixed Data'!E12/'China Debt Data'!$E39</f>
+        <v>0.35513354998717012</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
+++ b/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
@@ -278,12 +278,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.000E+00"/>
     <numFmt numFmtId="60" formatCode="0.00&quot; &quot;;(0.00)"/>
     <numFmt numFmtId="61" formatCode="0.0000%"/>
-    <numFmt numFmtId="62" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -326,7 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -347,35 +346,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -392,7 +391,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -400,14 +399,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,26 +416,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -466,10 +462,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -484,7 +477,7 @@
     <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -521,10 +514,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ff595959"/>
       <rgbColor rgb="ffff0000"/>
     </indexedColors>
@@ -567,10 +560,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.371313"/>
+          <c:x val="0.385267"/>
           <c:y val="0"/>
-          <c:w val="0.257374"/>
-          <c:h val="0.132417"/>
+          <c:w val="0.251971"/>
+          <c:h val="0.134093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -586,10 +579,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.113817"/>
-          <c:y val="0.132417"/>
-          <c:w val="0.881183"/>
-          <c:h val="0.696709"/>
+          <c:x val="0.133932"/>
+          <c:y val="0.134093"/>
+          <c:w val="0.861068"/>
+          <c:h val="0.693028"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -622,7 +615,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -775,7 +768,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -928,7 +921,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -1081,7 +1074,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -1315,10 +1308,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00261471"/>
-          <c:y val="0.93761"/>
-          <c:w val="0.906947"/>
-          <c:h val="0.06239"/>
+          <c:x val="0"/>
+          <c:y val="0.936978"/>
+          <c:w val="0.938036"/>
+          <c:h val="0.0630216"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1399,10 +1392,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.376054"/>
+          <c:x val="0.375826"/>
           <c:y val="0"/>
-          <c:w val="0.247892"/>
-          <c:h val="0.132417"/>
+          <c:w val="0.248348"/>
+          <c:h val="0.134093"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1418,10 +1411,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.109225"/>
-          <c:y val="0.132417"/>
-          <c:w val="0.885775"/>
-          <c:h val="0.696709"/>
+          <c:x val="0.109425"/>
+          <c:y val="0.134093"/>
+          <c:w val="0.885575"/>
+          <c:h val="0.693028"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1454,7 +1447,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -1607,7 +1600,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -1760,7 +1753,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -1913,7 +1906,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="000000">
@@ -2050,7 +2043,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_);\(0.00\)" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00&quot; &quot;;(0.00)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2147,10 +2140,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0978785"/>
-          <c:y val="0.93761"/>
-          <c:w val="0.83077"/>
-          <c:h val="0.06239"/>
+          <c:x val="0.0745635"/>
+          <c:y val="0.936978"/>
+          <c:w val="0.879286"/>
+          <c:h val="0.0630216"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2201,15 +2194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447721</xdr:colOff>
+      <xdr:colOff>333691</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>23494</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>24726</xdr:rowOff>
+      <xdr:colOff>15836</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2217,8 +2210,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9998121" y="397207"/>
-        <a:ext cx="4960574" cy="2294520"/>
+        <a:off x="9884091" y="397207"/>
+        <a:ext cx="5066946" cy="2265838"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2242,9 +2235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>42544</xdr:colOff>
+      <xdr:colOff>32611</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>39966</xdr:rowOff>
+      <xdr:rowOff>11284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2253,7 +2246,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6984218" y="221947"/>
-        <a:ext cx="5415427" cy="2294520"/>
+        <a:ext cx="5405494" cy="2265838"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2411,9 +2404,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2493,7 +2486,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2521,10 +2514,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2780,9 +2773,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -3070,7 +3063,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3098,10 +3091,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4398,818 +4391,818 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" t="s" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" t="s" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1849029664.4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>29061718.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>9931198662.299999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>149430945.3</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2241837854.3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>38197055.1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>10580767699.9</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>142538092.9</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2632029310.2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>37828578.5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>11703994182.1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>183526646.8</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2890238573.3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>34879303.7</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>12026223274.4</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>180689717.9</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2998355044.3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>24764306.3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>12227885011.6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>143266648.8</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>3544639145.8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>22660368.2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>13464882307</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>151726191.1</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>4086689689.8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>33344902.4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>14954407650.6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>148616183.2</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>4754428931.3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>40316675.9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>16797670141.1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>144943981.1</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>5209633062.8</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>42911979.9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>17065165352.3</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>141221659.6</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="A15" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>5185722277.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>35812212.9</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>18348188708.1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>179186617.6</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="A16" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>5867509111.8</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>23453394</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>20663375831.9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>228017067.9</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>6580740209.6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>23053251.9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>23363317172.7</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>243972711.4</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="6">
+      <c r="A18" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>6476089777.8</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>20229838.7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>24919617589.9</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>281658096.9</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="6">
+      <c r="A19" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>6902629411</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>18454827.9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>24551561529.1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>373839795</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="6">
+      <c r="A20" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>7960615109.6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>11569459.5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>27390827116.9</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>432545708.6</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="6">
+      <c r="A21" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>8395502196.9</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>13270134.8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>30241086482.6</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>417158836.8</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="6">
+      <c r="A22" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>8298763054.9</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>12151072.4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>29850953918.3</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>439801891</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="6">
+      <c r="A23" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>8106316372.4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>14002757.9</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>30095124742.1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>599300423.8</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>9057333356.1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>24686360.9</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>32310194703.8</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>589065227.1</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="6">
+      <c r="A25" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>9943050525</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>27584265.2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>34192272492.3</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>603140475.6</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="6">
+      <c r="A26" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>9249848286.4</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>27190546.8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>33111988980.4</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>653213444.8</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="6">
+      <c r="A27" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>8952124828.1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>39324219.2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>32046178980.2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>94910472.7</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="6">
+      <c r="A28" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>10122942033.8</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>70084282.59999999</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>33967034723.9</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>137947155.1</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="6">
+      <c r="A29" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>10725993550</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>88122246.3</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>36668571730.4</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>340927338.7</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="A30" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>11600420988.8</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>99449151.59999999</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>36561942040.2</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>523590010.8</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="6">
+      <c r="A31" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>11300134209.5</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>99698796.09999999</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>34260045290.9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>610510191.2</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="8">
+      <c r="A32" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>11853449200.4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>103154256.6</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>37430775913.1</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>981308438.1</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="10">
+      <c r="A33" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>14161321567.6</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>271623707.3</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>42306089047.4</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>1103942201.5</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="10">
+      <c r="A34" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>16320821885.1</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>313267189.9</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>49826301249</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>1131082172</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="10">
+      <c r="A35" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>19504201128</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>602965075.2</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>56662922386.2</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>2008517395.2</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="10">
+      <c r="A36" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>21684210688.5</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>1443092440.3</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>63124246853.5</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>2182715088.4</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="10">
+      <c r="A37" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>25795379781.1</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>1875694551.9</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>64742561800.2</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>2623586522.7</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="10">
+      <c r="A38" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>35735908567.5</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>2716626375.7</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>63669520213.6</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>3310938888</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="10">
+      <c r="A39" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>39314598514.4</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>3633004552.6</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>60087820820.5</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>4229593003.8</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="10">
+      <c r="A40" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>42262761571.6</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>4307694238.5</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>64202720545.2</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>5138871586.5</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="10">
+      <c r="A41" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>43925393891.1</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>4523983040.5</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>68614186760.2</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>5988725755.7</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="10">
+      <c r="A42" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>46661458616.2</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>4679819369.1</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>75052145049.5</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>7636999126.9</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="10">
+      <c r="A43" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>50765545978.7</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>5081537216.7</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>91662069234.5</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>10996185969.5</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="13">
+      <c r="A44" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>52919692662.2</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>6067017951.6</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>99223959504.7</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>18131675381</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="6">
+      <c r="A45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>56117855647</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>6382384375.8</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>107882935628.6</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>21619974718</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="6">
+      <c r="A46" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>56299454219.9</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>6832918923.4</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>115695344143.7</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>22982050873.2</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="6">
+      <c r="A47" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>56592086411.4</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>7215683975.8</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>130433056375.4</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>27358303315.7</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="6">
+      <c r="A48" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C48" t="s" s="6">
+      <c r="C48" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D48" t="s" s="6">
+      <c r="D48" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="E48" t="s" s="6">
+      <c r="E48" t="s" s="2">
         <v>55</v>
       </c>
     </row>
@@ -5230,20 +5223,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.6719" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.8516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.1719" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.6719" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.8516" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="2">
         <v>58</v>
       </c>
       <c r="D1" t="s" s="2">
@@ -5257,12 +5250,12 @@
       <c r="A2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="15">
         <v>5024000000</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>30938000000</v>
       </c>
     </row>
@@ -5270,12 +5263,12 @@
       <c r="A3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15">
         <v>5228000000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>36599000000</v>
       </c>
     </row>
@@ -5283,12 +5276,12 @@
       <c r="A4" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="15">
         <v>5644000000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>40012000000</v>
       </c>
     </row>
@@ -5296,12 +5289,12 @@
       <c r="A5" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="15">
         <v>6093000000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>37369000000</v>
       </c>
     </row>
@@ -5309,12 +5302,12 @@
       <c r="A6" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="15">
         <v>7142000000</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>40572000000</v>
       </c>
     </row>
@@ -5322,12 +5315,12 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15">
         <v>7064000000</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>40565000000</v>
       </c>
     </row>
@@ -5335,12 +5328,12 @@
       <c r="A8" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="15">
         <v>7571000000</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>41543000000</v>
       </c>
     </row>
@@ -5348,12 +5341,12 @@
       <c r="A9" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15">
         <v>7884000000</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>43437000000</v>
       </c>
     </row>
@@ -5361,12 +5354,12 @@
       <c r="A10" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15">
         <v>8240000000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>50107000000</v>
       </c>
     </row>
@@ -5374,12 +5367,12 @@
       <c r="A11" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15">
         <v>8271000000</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>52256000000</v>
       </c>
     </row>
@@ -5387,12 +5380,12 @@
       <c r="A12" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="15">
         <v>9468000000</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>52426000000</v>
       </c>
     </row>
@@ -5400,12 +5393,12 @@
       <c r="A13" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="15">
         <v>10367000000</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>59556000000</v>
       </c>
     </row>
@@ -5413,12 +5406,12 @@
       <c r="A14" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="15">
         <v>11176000000</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>63727000000</v>
       </c>
     </row>
@@ -5426,12 +5419,12 @@
       <c r="A15" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="15">
         <v>11948000000</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>67442000000</v>
       </c>
     </row>
@@ -5439,12 +5432,12 @@
       <c r="A16" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15">
         <v>13781000000</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>67998000000</v>
       </c>
     </row>
@@ -5452,12 +5445,12 @@
       <c r="A17" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="15">
         <v>14635000000</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>79451000000</v>
       </c>
     </row>
@@ -5465,12 +5458,12 @@
       <c r="A18" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15">
         <v>16051000000</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>82968000000</v>
       </c>
     </row>
@@ -5478,12 +5471,12 @@
       <c r="A19" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="15">
         <v>17888000000</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>81806000000</v>
       </c>
     </row>
@@ -5491,12 +5484,12 @@
       <c r="A20" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="15">
         <v>18430000000</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>81490000000</v>
       </c>
     </row>
@@ -5504,12 +5497,12 @@
       <c r="A21" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="15">
         <v>18532000000</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>82514000000</v>
       </c>
     </row>
@@ -5517,16 +5510,16 @@
       <c r="A22" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <v>2374003.75</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>19371000000</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>79705000000</v>
       </c>
     </row>
@@ -5534,16 +5527,16 @@
       <c r="A23" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>0</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>789556625.875</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>18610000000</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>77931000000</v>
       </c>
     </row>
@@ -5551,16 +5544,16 @@
       <c r="A24" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="16">
         <v>0</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>808461700.5</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>19585000000</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>77937000000</v>
       </c>
     </row>
@@ -5568,16 +5561,16 @@
       <c r="A25" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>6300000</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <v>1268858265.875</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>21621000000</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>89727000000</v>
       </c>
     </row>
@@ -5585,16 +5578,16 @@
       <c r="A26" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>6300000</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>1268825885.5</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>23655000000</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>105612000000</v>
       </c>
     </row>
@@ -5602,16 +5595,16 @@
       <c r="A27" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>313300000</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <v>1315456168.375</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>27945000000</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>118481000000</v>
       </c>
     </row>
@@ -5619,16 +5612,16 @@
       <c r="A28" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>943300000</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>1774863503.125</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>32359000000</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>137229000000</v>
       </c>
     </row>
@@ -5636,16 +5629,16 @@
       <c r="A29" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>943300000</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <v>1695388803.25</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>37043000000</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>152362000000</v>
       </c>
     </row>
@@ -5653,16 +5646,16 @@
       <c r="A30" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>982000000</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <v>2647238076.125</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <v>46602000000</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>170853000000</v>
       </c>
     </row>
@@ -5670,16 +5663,16 @@
       <c r="A31" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>3230274192</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <v>3372958745.75</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <v>48113000000</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>167875000000</v>
       </c>
     </row>
@@ -5687,16 +5680,16 @@
       <c r="A32" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <v>4020008096</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <v>5205926015.6875</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <v>56710000000</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>177166000000</v>
       </c>
     </row>
@@ -5704,16 +5697,16 @@
       <c r="A33" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>4785999130</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <v>5098878486.375</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <v>65267000000</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>213588000000</v>
       </c>
     </row>
@@ -5721,16 +5714,16 @@
       <c r="A34" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="16">
         <v>5065012462</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <v>4951854278.25</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>68419000000</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>224384000000</v>
       </c>
     </row>
@@ -5738,16 +5731,16 @@
       <c r="A35" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <v>5477187102</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <v>4795856077.1875</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="15">
         <v>74277000000</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>231218000000</v>
       </c>
     </row>
@@ -5755,16 +5748,16 @@
       <c r="A36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="16">
         <v>7547451226</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <v>12949317715.125</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>79312000000</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>244361000000</v>
       </c>
     </row>
@@ -5772,16 +5765,16 @@
       <c r="A37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="16">
         <v>7219605762</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>15294148136.5</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="15">
         <v>80412000000</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>270556000000</v>
       </c>
     </row>
@@ -5789,16 +5782,16 @@
       <c r="A38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="16">
         <v>7216834010</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>24895138153.4688</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="15">
         <v>81546000000</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>278655000000</v>
       </c>
     </row>
@@ -5806,16 +5799,16 @@
       <c r="A39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <v>7305812611</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>27632803070.6875</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="15">
         <v>87348000000</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>304952000000</v>
       </c>
     </row>
@@ -5823,8 +5816,8 @@
       <c r="A40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
@@ -5832,8 +5825,8 @@
       <c r="A41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
@@ -5841,8 +5834,8 @@
       <c r="A42" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
@@ -5850,8 +5843,8 @@
       <c r="A43" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
@@ -5859,29 +5852,29 @@
       <c r="A44" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
@@ -5889,10 +5882,10 @@
       <c r="A48" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
@@ -5913,26 +5906,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="27.6719" style="19" customWidth="1"/>
-    <col min="3" max="3" width="14.6719" style="19" customWidth="1"/>
-    <col min="4" max="4" width="27.6719" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.8516" style="19" customWidth="1"/>
-    <col min="6" max="15" width="8.85156" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="2" width="27.6719" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.6719" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.6719" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.8516" style="17" customWidth="1"/>
+    <col min="6" max="15" width="8.85156" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="8.85156" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="2">
         <v>58</v>
       </c>
       <c r="F1" s="4"/>
@@ -5950,19 +5943,19 @@
       <c r="A2" s="3">
         <v>2007</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <f>'Transposed'!B33-'Transposed'!C33</f>
         <v>13889697860.3</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <f>B2+'China Debt Data'!B29</f>
         <v>14832997860.3</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <f>'Transposed'!D33-'Transposed'!E33</f>
         <v>41202146845.9</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <f>D2+'China Debt Data'!C29</f>
         <v>42897535649.15</v>
       </c>
@@ -5981,19 +5974,19 @@
       <c r="A3" s="3">
         <v>2008</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <f>'Transposed'!B34-'Transposed'!C34</f>
         <v>16007554695.2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <f>B3+'China Debt Data'!B30</f>
         <v>16989554695.2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <f>'Transposed'!D34-'Transposed'!E34</f>
         <v>48695219077</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <f>D3+'China Debt Data'!C30</f>
         <v>51342457153.125</v>
       </c>
@@ -6012,19 +6005,19 @@
       <c r="A4" s="3">
         <v>2009</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <f>'Transposed'!B35-'Transposed'!C35</f>
         <v>18901236052.8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <f>B4+'China Debt Data'!B31</f>
         <v>22131510244.8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>'Transposed'!D35-'Transposed'!E35</f>
         <v>54654404991</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <f>D4+'China Debt Data'!C31</f>
         <v>58027363736.75</v>
       </c>
@@ -6043,19 +6036,19 @@
       <c r="A5" s="3">
         <v>2010</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <f>'Transposed'!B36-'Transposed'!C36</f>
         <v>20241118248.2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <f>B5+'China Debt Data'!B32</f>
         <v>24261126344.2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <f>'Transposed'!D36-'Transposed'!E36</f>
         <v>60941531765.1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <f>D5+'China Debt Data'!C32</f>
         <v>66147457780.7875</v>
       </c>
@@ -6074,19 +6067,19 @@
       <c r="A6" s="3">
         <v>2011</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <f>'Transposed'!B37-'Transposed'!C37</f>
         <v>23919685229.2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <f>B6+'China Debt Data'!B33</f>
         <v>28705684359.2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>'Transposed'!D37-'Transposed'!E37</f>
         <v>62118975277.5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <f>D6+'China Debt Data'!C33</f>
         <v>67217853763.875</v>
       </c>
@@ -6105,19 +6098,19 @@
       <c r="A7" s="3">
         <v>2012</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f>'Transposed'!B38-'Transposed'!C38</f>
         <v>33019282191.8</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <f>B7+'China Debt Data'!B34</f>
         <v>38084294653.8</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>'Transposed'!D38-'Transposed'!E38</f>
         <v>60358581325.6</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f>D7+'China Debt Data'!C34</f>
         <v>65310435603.85</v>
       </c>
@@ -6136,19 +6129,19 @@
       <c r="A8" s="3">
         <v>2013</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <f>'Transposed'!B39-'Transposed'!C39</f>
         <v>35681593961.8</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <f>B8+'China Debt Data'!B35</f>
         <v>41158781063.8</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <f>'Transposed'!D39-'Transposed'!E39</f>
         <v>55858227816.7</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <f>D8+'China Debt Data'!C35</f>
         <v>60654083893.8875</v>
       </c>
@@ -6167,19 +6160,19 @@
       <c r="A9" s="3">
         <v>2014</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <f>'Transposed'!B40-'Transposed'!C40</f>
         <v>37955067333.1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <f>B9+'China Debt Data'!B36</f>
         <v>45502518559.1</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <f>'Transposed'!D40-'Transposed'!E40</f>
         <v>59063848958.7</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <f>D9+'China Debt Data'!C36</f>
         <v>72013166673.825</v>
       </c>
@@ -6198,19 +6191,19 @@
       <c r="A10" s="3">
         <v>2015</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <f>'Transposed'!B41-'Transposed'!C41</f>
         <v>39401410850.6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <f>B10+'China Debt Data'!B37</f>
         <v>46621016612.6</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <f>'Transposed'!D41-'Transposed'!E41</f>
         <v>62625461004.5</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <f>D10+'China Debt Data'!C37</f>
         <v>77919609141</v>
       </c>
@@ -6229,19 +6222,19 @@
       <c r="A11" s="3">
         <v>2016</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <f>'Transposed'!B42-'Transposed'!C42</f>
         <v>41981639247.1</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <f>B11+'China Debt Data'!B38</f>
         <v>49198473257.1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <f>'Transposed'!D42-'Transposed'!E42</f>
         <v>67415145922.6</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <f>D11+'China Debt Data'!C38</f>
         <v>92310284076.0688</v>
       </c>
@@ -6260,19 +6253,19 @@
       <c r="A12" s="3">
         <v>2017</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <f>'Transposed'!B43-'Transposed'!C43</f>
         <v>45684008762</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <f>B12+'China Debt Data'!B39</f>
         <v>52989821373</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <f>'Transposed'!D43-'Transposed'!E43</f>
         <v>80665883265</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <f>D12+'China Debt Data'!C39</f>
         <v>108298686335.688</v>
       </c>
@@ -6289,10 +6282,10 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -6306,10 +6299,10 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -6323,10 +6316,10 @@
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -6340,10 +6333,10 @@
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -6373,17 +6366,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="20" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="20" customWidth="1"/>
-    <col min="4" max="4" width="22" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="20" customWidth="1"/>
-    <col min="6" max="16" width="8.85156" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="20" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.3516" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="18" customWidth="1"/>
+    <col min="6" max="16" width="8.85156" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="8.85156" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="2">
         <v>68</v>
       </c>
       <c r="B1" t="s" s="2">
@@ -6411,22 +6404,22 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>2007</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <f>'Fixed Data'!B2/'China Debt Data'!$D29</f>
         <v>0.374961473430878</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <f>'Fixed Data'!C2/'China Debt Data'!$D29</f>
         <v>0.400426473565856</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <f>'Fixed Data'!D2/'China Debt Data'!$E29</f>
         <v>0.27042272250233</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <f>'Fixed Data'!E2/'China Debt Data'!$E29</f>
         <v>0.281550095490674</v>
       </c>
@@ -6443,22 +6436,22 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>2008</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <f>'Fixed Data'!B3/'China Debt Data'!$D30</f>
         <v>0.343495015132398</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <f>'Fixed Data'!C3/'China Debt Data'!$D30</f>
         <v>0.36456707212566</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <f>'Fixed Data'!D3/'China Debt Data'!$E30</f>
         <v>0.285012373660398</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <f>'Fixed Data'!E3/'China Debt Data'!$E30</f>
         <v>0.300506617695475</v>
       </c>
@@ -6475,22 +6468,22 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2009</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <f>'Fixed Data'!B4/'China Debt Data'!$D31</f>
         <v>0.392850914571945</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <f>'Fixed Data'!C4/'China Debt Data'!$D31</f>
         <v>0.459990236418432</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <f>'Fixed Data'!D4/'China Debt Data'!$E31</f>
         <v>0.325566075895756</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <f>'Fixed Data'!E4/'China Debt Data'!$E31</f>
         <v>0.345658160755026</v>
       </c>
@@ -6507,22 +6500,22 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>2010</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <f>'Fixed Data'!B5/'China Debt Data'!$D32</f>
         <v>0.356923263061189</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f>'Fixed Data'!C5/'China Debt Data'!$D32</f>
         <v>0.42781037461118</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f>'Fixed Data'!D5/'China Debt Data'!$E32</f>
         <v>0.343979836792048</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <f>'Fixed Data'!E5/'China Debt Data'!$E32</f>
         <v>0.373364289879477</v>
       </c>
@@ -6539,22 +6532,22 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>2011</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <f>'Fixed Data'!B6/'China Debt Data'!$D33</f>
         <v>0.366489730326199</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <f>'Fixed Data'!C6/'China Debt Data'!$D33</f>
         <v>0.439819270982273</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <f>'Fixed Data'!D6/'China Debt Data'!$E33</f>
         <v>0.290835511721164</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <f>'Fixed Data'!E6/'China Debt Data'!$E33</f>
         <v>0.314708006835005</v>
       </c>
@@ -6571,22 +6564,22 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>2012</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <f>'Fixed Data'!B7/'China Debt Data'!$D34</f>
         <v>0.482603987076689</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <f>'Fixed Data'!C7/'China Debt Data'!$D34</f>
         <v>0.5566333131703179</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>'Fixed Data'!D7/'China Debt Data'!$E34</f>
         <v>0.268996814949373</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <f>'Fixed Data'!E7/'China Debt Data'!$E34</f>
         <v>0.291065475273861</v>
       </c>
@@ -6603,22 +6596,22 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>2013</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <f>'Fixed Data'!B8/'China Debt Data'!$D35</f>
         <v>0.480385502400474</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <f>'Fixed Data'!C8/'China Debt Data'!$D35</f>
         <v>0.554125517506092</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f>'Fixed Data'!D8/'China Debt Data'!$E35</f>
         <v>0.241582523059191</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <f>'Fixed Data'!E8/'China Debt Data'!$E35</f>
         <v>0.262324230353552</v>
       </c>
@@ -6635,22 +6628,22 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>2014</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <f>'Fixed Data'!B9/'China Debt Data'!$D36</f>
         <v>0.47855390524889</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <f>'Fixed Data'!C9/'China Debt Data'!$D36</f>
         <v>0.573715434727406</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <f>'Fixed Data'!D9/'China Debt Data'!$E36</f>
         <v>0.241707346748049</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <f>'Fixed Data'!E9/'China Debt Data'!$E36</f>
         <v>0.294699918046763</v>
       </c>
@@ -6667,22 +6660,22 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>2015</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <f>'Fixed Data'!B10/'China Debt Data'!$D37</f>
         <v>0.489994165679252</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <f>'Fixed Data'!C10/'China Debt Data'!$D37</f>
         <v>0.57977685684475</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <f>'Fixed Data'!D10/'China Debt Data'!$E37</f>
         <v>0.231469496165304</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <f>'Fixed Data'!E10/'China Debt Data'!$E37</f>
         <v>0.287998082249146</v>
       </c>
@@ -6699,22 +6692,22 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>2016</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <f>'Fixed Data'!B11/'China Debt Data'!$D38</f>
         <v>0.51482156386702</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <f>'Fixed Data'!C11/'China Debt Data'!$D38</f>
         <v>0.603321723408874</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <f>'Fixed Data'!D11/'China Debt Data'!$E38</f>
         <v>0.24193050877465</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <f>'Fixed Data'!E11/'China Debt Data'!$E38</f>
         <v>0.331270869268697</v>
       </c>
@@ -6731,22 +6724,22 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>2017</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <f>'Fixed Data'!B12/'China Debt Data'!$D39</f>
         <v>0.523011502976599</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <f>'Fixed Data'!C12/'China Debt Data'!$D39</f>
         <v>0.606651799388652</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <f>'Fixed Data'!D12/'China Debt Data'!$E39</f>
         <v>0.264519935153729</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <f>'Fixed Data'!E12/'China Debt Data'!$E39</f>
         <v>0.355133549987172</v>
       </c>
@@ -6763,7 +6756,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="16"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6781,7 +6774,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -6799,7 +6792,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6833,23 +6826,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="23" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="23" customWidth="1"/>
-    <col min="4" max="4" width="22" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="23" customWidth="1"/>
-    <col min="6" max="16" width="8.85156" style="23" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="21" customWidth="1"/>
+    <col min="6" max="16" width="8.85156" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="2">
         <v>68</v>
       </c>
       <c r="B1" t="s" s="2">
@@ -6877,16 +6870,11 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="21">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22">
-        <f>'Transposed'!B26/'China Debt Data'!D22</f>
-        <v>0.477510107191162</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20">
         <f>'Transposed'!D26/'China Debt Data'!E22</f>
         <v>0.415431766895427</v>
       </c>
@@ -6903,16 +6891,16 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="21">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22">
-        <f>'Transposed'!B27/'China Debt Data'!D23</f>
-        <v>0.481038410967222</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22">
+      <c r="A3" s="19">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20">
+        <f>'Transposed'!B16/'China Debt Data'!D12</f>
+        <v>0.619720016032953</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
         <f>'Transposed'!D27/'China Debt Data'!E23</f>
         <v>0.411212213114165</v>
       </c>
@@ -6929,16 +6917,16 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22">
-        <f>'Transposed'!B28/'China Debt Data'!D24</f>
-        <v>0.51687219983661</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22">
+      <c r="A4" s="19">
+        <v>1991</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20">
+        <f>'Transposed'!B17/'China Debt Data'!D13</f>
+        <v>0.634777680100318</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
         <f>'Transposed'!D28/'China Debt Data'!E24</f>
         <v>0.435826818121046</v>
       </c>
@@ -6955,16 +6943,16 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="21">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22">
-        <f>'Transposed'!B29/'China Debt Data'!D25</f>
-        <v>0.496091464317099</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22">
+      <c r="A5" s="19">
+        <v>1992</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20">
+        <f>'Transposed'!B18/'China Debt Data'!D14</f>
+        <v>0.579464010182534</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
         <f>'Transposed'!D29/'China Debt Data'!E25</f>
         <v>0.408668201660593</v>
       </c>
@@ -6981,16 +6969,16 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="21">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
-        <f>'Transposed'!B30/'China Debt Data'!D26</f>
-        <v>0.490400379995773</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22">
+      <c r="A6" s="19">
+        <v>1993</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20">
+        <f>'Transposed'!B19/'China Debt Data'!D15</f>
+        <v>0.577722582105792</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
         <f>'Transposed'!D30/'China Debt Data'!E26</f>
         <v>0.346191171838427</v>
       </c>
@@ -7007,16 +6995,16 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="21">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
-        <f>'Transposed'!B31/'China Debt Data'!D27</f>
-        <v>0.404370521005547</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22">
+      <c r="A7" s="19">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20">
+        <f>'Transposed'!B20/'China Debt Data'!D16</f>
+        <v>0.577651484623757</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
         <f>'Transposed'!D31/'China Debt Data'!E27</f>
         <v>0.289160669566428</v>
       </c>
@@ -7033,16 +7021,16 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="21">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
-        <f>'Transposed'!B32/'China Debt Data'!D28</f>
-        <v>0.36631073891035</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22">
+      <c r="A8" s="19">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
+        <f>'Transposed'!B21/'China Debt Data'!D17</f>
+        <v>0.573659186668944</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
         <f>'Transposed'!D32/'China Debt Data'!E28</f>
         <v>0.272761412770624</v>
       </c>
@@ -7059,16 +7047,16 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="21">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
-        <f>'Transposed'!B33/'China Debt Data'!D29</f>
-        <v>0.382294132969792</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22">
+      <c r="A9" s="19">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20">
+        <f>'Transposed'!B22/'China Debt Data'!D18</f>
+        <v>0.517024674780388</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
         <f>'Transposed'!D33/'China Debt Data'!E29</f>
         <v>0.277668244361455</v>
       </c>
@@ -7085,16 +7073,16 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="21">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
-        <f>'Transposed'!B34/'China Debt Data'!D30</f>
-        <v>0.350217198512939</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22">
+      <c r="A10" s="19">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20">
+        <f>'Transposed'!B23/'China Debt Data'!D19</f>
+        <v>0.45317063799195</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
         <f>'Transposed'!D34/'China Debt Data'!E30</f>
         <v>0.291632580340995</v>
       </c>
@@ -7111,16 +7099,16 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="21">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
-        <f>'Transposed'!B35/'China Debt Data'!D31</f>
-        <v>0.405383183921186</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22">
+      <c r="A11" s="19">
+        <v>1998</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
+        <f>'Transposed'!B24/'China Debt Data'!D20</f>
+        <v>0.491445108849702</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
         <f>'Transposed'!D35/'China Debt Data'!E31</f>
         <v>0.337530438637081</v>
       </c>
@@ -7137,16 +7125,16 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
-        <f>'Transposed'!B36/'China Debt Data'!D32</f>
-        <v>0.382370140865808</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22">
+      <c r="A12" s="19">
+        <v>1999</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20">
+        <f>'Transposed'!B25/'China Debt Data'!D21</f>
+        <v>0.536534131502266</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
         <f>'Transposed'!D36/'China Debt Data'!E32</f>
         <v>0.356300005946401</v>
       </c>
@@ -7163,11 +7151,19 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="19">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
+        <f>'Transposed'!B26/'China Debt Data'!D22</f>
+        <v>0.477510107191162</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
+        <f>'Transposed'!D26/'China Debt Data'!E22</f>
+        <v>0.415431766895427</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -7181,16 +7177,18 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="22">
-        <f>GEOMEAN(C2:C12)</f>
-        <v>0.428223188816735</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="22">
-        <f>GEOMEAN(E2:E12)</f>
-        <v>0.344420554300358</v>
+      <c r="A14" s="19">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
+        <f>'Transposed'!B27/'China Debt Data'!D23</f>
+        <v>0.481038410967222</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <f>'Transposed'!D27/'China Debt Data'!E23</f>
+        <v>0.411212213114165</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -7205,11 +7203,19 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="19">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20">
+        <f>'Transposed'!B28/'China Debt Data'!D24</f>
+        <v>0.51687219983661</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <f>'Transposed'!D28/'China Debt Data'!E24</f>
+        <v>0.435826818121046</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -7222,8 +7228,435 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="19">
+        <v>2003</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20">
+        <f>'Transposed'!B29/'China Debt Data'!D25</f>
+        <v>0.496091464317099</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <f>'Transposed'!D29/'China Debt Data'!E25</f>
+        <v>0.408668201660593</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="19">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20">
+        <f>'Transposed'!B30/'China Debt Data'!D26</f>
+        <v>0.490400379995773</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
+        <f>'Transposed'!D30/'China Debt Data'!E26</f>
+        <v>0.346191171838427</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="19">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20">
+        <f>'Transposed'!B31/'China Debt Data'!D27</f>
+        <v>0.404370521005547</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <f>'Transposed'!D31/'China Debt Data'!E27</f>
+        <v>0.289160669566428</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="19">
+        <v>2006</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20">
+        <f>'Transposed'!B32/'China Debt Data'!D28</f>
+        <v>0.36631073891035</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <f>'Transposed'!D32/'China Debt Data'!E28</f>
+        <v>0.272761412770624</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="19">
+        <v>2007</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20">
+        <f>'Transposed'!B33/'China Debt Data'!D29</f>
+        <v>0.382294132969792</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <f>'Transposed'!D33/'China Debt Data'!E29</f>
+        <v>0.277668244361455</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="19">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20">
+        <f>'Transposed'!B34/'China Debt Data'!D30</f>
+        <v>0.350217198512939</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f>'Transposed'!D34/'China Debt Data'!E30</f>
+        <v>0.291632580340995</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="19">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20">
+        <f>'Transposed'!B35/'China Debt Data'!D31</f>
+        <v>0.405383183921186</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <f>'Transposed'!D35/'China Debt Data'!E31</f>
+        <v>0.337530438637081</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="19">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
+        <f>'Transposed'!B36/'China Debt Data'!D32</f>
+        <v>0.382370140865808</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <f>'Transposed'!D36/'China Debt Data'!E32</f>
+        <v>0.356300005946401</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="19">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
+        <f>'Transposed'!B37/'China Debt Data'!D33</f>
+        <v>0.395228519483047</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <f>'Transposed'!D37/'China Debt Data'!E33</f>
+        <v>0.303118910239339</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="19">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20">
+        <f>'Transposed'!B38/'China Debt Data'!D34</f>
+        <v>0.5223097175857579</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <f>'Transposed'!D38/'China Debt Data'!E34</f>
+        <v>0.28375249667356</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="19">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20">
+        <f>'Transposed'!B39/'China Debt Data'!D35</f>
+        <v>0.529297070619438</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <f>'Transposed'!D39/'China Debt Data'!E35</f>
+        <v>0.259875186276587</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20">
+        <f>'Transposed'!B40/'China Debt Data'!D36</f>
+        <v>0.532867177370385</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20">
+        <f>'Transposed'!D40/'China Debt Data'!E36</f>
+        <v>0.26273718205933</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
+        <f>'Transposed'!B41/'China Debt Data'!D37</f>
+        <v>0.546254214434413</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
+        <f>'Transposed'!D41/'China Debt Data'!E37</f>
+        <v>0.253604380461716</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20">
+        <f>'Transposed'!B42/'China Debt Data'!D38</f>
+        <v>0.572210269249258</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
+        <f>'Transposed'!D42/'China Debt Data'!E38</f>
+        <v>0.269337155441316</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="20">
+        <f>AVERAGE(C14:C21)</f>
+        <v>0.435949380814417</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="20">
+        <f>AVERAGE(E19:E26)</f>
+        <v>0.297829909405755</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="20">
+        <f>AVERAGE(C15:C20)</f>
+        <v>0.442723239505862</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A12">
+  <conditionalFormatting sqref="A1:A29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
@@ -7244,9 +7677,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="24" customWidth="1"/>
-    <col min="2" max="9" width="50.8516" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="24" customWidth="1"/>
+    <col min="1" max="1" width="15.8516" style="22" customWidth="1"/>
+    <col min="2" max="9" width="50.8516" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">

--- a/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
+++ b/DATA/IDS_SRI+PAK_WORLD+CHINA.xlsx
@@ -1,23 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tedb0\Documents\debt-trap\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A11EAA-83B1-4979-9C1D-E5ACFB0116FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1392" yWindow="2964" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId4"/>
-    <sheet name="Transposed" sheetId="2" r:id="rId5"/>
-    <sheet name="China Debt Data" sheetId="3" r:id="rId6"/>
-    <sheet name="Fixed Data" sheetId="4" r:id="rId7"/>
-    <sheet name="DTGDP" sheetId="5" r:id="rId8"/>
-    <sheet name="DTGDP-1" sheetId="6" r:id="rId9"/>
-    <sheet name="Series - Metadata" sheetId="7" r:id="rId10"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Transposed" sheetId="2" r:id="rId2"/>
+    <sheet name="China Debt Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Debt Stock" sheetId="4" r:id="rId4"/>
+    <sheet name="DTGDP" sheetId="5" r:id="rId5"/>
+    <sheet name="DTGDP-1" sheetId="6" r:id="rId6"/>
+    <sheet name="Series - Metadata" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="86">
   <si>
     <t>Country Name</t>
   </si>
@@ -272,48 +292,39 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>External debt stocks, total (DOD, current US$)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.000E+00"/>
-    <numFmt numFmtId="60" formatCode="0.00&quot; &quot;;(0.00)"/>
-    <numFmt numFmtId="61" formatCode="0.0000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;;\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="新細明體"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="新細明體"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -412,123 +423,135 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="ffff0000"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="ffff0000"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="ff595959"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFDE9D9"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -537,7 +560,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -545,7 +568,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -560,10 +583,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.385267"/>
+          <c:x val="0.38526700000000003"/>
           <c:y val="0"/>
           <c:w val="0.251971"/>
-          <c:h val="0.134093"/>
+          <c:h val="0.13409299999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -572,7 +595,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -580,9 +603,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.133932"/>
-          <c:y val="0.134093"/>
-          <c:w val="0.861068"/>
-          <c:h val="0.693028"/>
+          <c:y val="0.13409299999999999"/>
+          <c:w val="0.86106799999999994"/>
+          <c:h val="0.69302799999999998"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -593,7 +616,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fixed Data'!$B$1</c:f>
+              <c:f>'Debt Stock'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -603,7 +626,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -615,52 +637,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Debt Stock'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
@@ -695,16 +677,17 @@
                 <c:pt idx="10">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fixed Data'!$B$2:$B$12</c:f>
+              <c:f>'Debt Stock'!$B$2:$B$12</c:f>
               <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13889697860.299999</c:v>
+                  <c:v>13889697860.300001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16007554695.200001</c:v>
@@ -716,7 +699,7 @@
                   <c:v>20241118248.200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23919685229.200001</c:v>
+                  <c:v>23919685229.199997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33019282191.799999</c:v>
@@ -734,19 +717,24 @@
                   <c:v>41981639247.099998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45684008762.000000</c:v>
+                  <c:v>45684008762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF93-4316-A2DA-1CD3AB690C86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fixed Data'!$C$1</c:f>
+              <c:f>'Debt Stock'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,7 +744,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -768,52 +755,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Debt Stock'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
@@ -848,16 +795,17 @@
                 <c:pt idx="10">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fixed Data'!$C$2:$C$12</c:f>
+              <c:f>'Debt Stock'!$C$2:$C$12</c:f>
               <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14832997860.299999</c:v>
+                  <c:v>14832997860.300001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16989554695.200001</c:v>
@@ -869,7 +817,7 @@
                   <c:v>24261126344.200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28705684359.200001</c:v>
+                  <c:v>28705684359.199997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>38084294653.800003</c:v>
@@ -887,19 +835,24 @@
                   <c:v>49198473257.099998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52989821373.000000</c:v>
+                  <c:v>52989821373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF93-4316-A2DA-1CD3AB690C86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fixed Data'!$D$1</c:f>
+              <c:f>'Debt Stock'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -909,7 +862,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -921,52 +873,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Debt Stock'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
@@ -1001,28 +913,29 @@
                 <c:pt idx="10">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fixed Data'!$D$2:$D$12</c:f>
+              <c:f>'Debt Stock'!$D$2:$D$12</c:f>
               <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>41202146845.900002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48695219077.000000</c:v>
+                  <c:v>48695219077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54654404991.000000</c:v>
+                  <c:v>54654404991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60941531765.099998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62118975277.500000</c:v>
+                  <c:v>62118975277.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60358581325.599998</c:v>
@@ -1034,25 +947,30 @@
                   <c:v>59063848958.699997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62625461004.500000</c:v>
+                  <c:v>62625461004.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>67415145922.599998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80665883265.000000</c:v>
+                  <c:v>80665883265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF93-4316-A2DA-1CD3AB690C86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fixed Data'!$E$1</c:f>
+              <c:f>'Debt Stock'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +980,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1074,52 +991,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Fixed Data'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Debt Stock'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
@@ -1154,28 +1031,29 @@
                 <c:pt idx="10">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fixed Data'!$E$2:$E$12</c:f>
+              <c:f>'Debt Stock'!$E$2:$E$12</c:f>
               <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42897535649.150002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51342457153.125000</c:v>
+                  <c:v>51342457153.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58027363736.750000</c:v>
+                  <c:v>58027363736.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>66147457780.787498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67217853763.875000</c:v>
+                  <c:v>67217853763.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>65310435603.849998</c:v>
@@ -1187,20 +1065,33 @@
                   <c:v>72013166673.824997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77919609141.000000</c:v>
+                  <c:v>77919609141</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>92310284076.068802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108298686335.688004</c:v>
+                  <c:v>108298686335.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF93-4316-A2DA-1CD3AB690C86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
@@ -1229,19 +1120,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
@@ -1262,7 +1155,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1278,20 +1171,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.75e+10"/>
-        <c:minorUnit val="1.375e+10"/>
+        <c:majorUnit val="27500000000"/>
+        <c:minorUnit val="13750000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1309,9 +1203,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.936978"/>
-          <c:w val="0.938036"/>
-          <c:h val="0.0630216"/>
+          <c:y val="0.93697799999999998"/>
+          <c:w val="0.93803599999999998"/>
+          <c:h val="6.3021599999999997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1328,18 +1222,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1354,13 +1250,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1369,7 +1272,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1377,7 +1280,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1392,10 +1295,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.375826"/>
+          <c:x val="0.37582599999999999"/>
           <c:y val="0"/>
-          <c:w val="0.248348"/>
-          <c:h val="0.134093"/>
+          <c:w val="0.24834800000000001"/>
+          <c:h val="0.13409299999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1404,17 +1307,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.109425"/>
-          <c:y val="0.134093"/>
+          <c:x val="0.10942499999999999"/>
+          <c:y val="0.13409299999999999"/>
           <c:w val="0.885575"/>
-          <c:h val="0.693028"/>
+          <c:h val="0.69302799999999998"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1425,7 +1328,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DTGDP'!$B$1</c:f>
+              <c:f>DTGDP!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1435,7 +1338,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1447,138 +1349,104 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'DTGDP'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00" ";\(0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2007.00 </c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2008.00 </c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.00 </c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.00 </c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011.00 </c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.00 </c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2013.00 </c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2014.00 </c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015.00 </c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2016.00 </c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2017.00 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DTGDP'!$B$2:$B$12</c:f>
+              <c:f>DTGDP!$B$2:$B$12</c:f>
               <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.374961</c:v>
+                  <c:v>0.37496147343087766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.343495</c:v>
+                  <c:v>0.34349501513239777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.392851</c:v>
+                  <c:v>0.39285091457194521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.356923</c:v>
+                  <c:v>0.35692326306118849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.366490</c:v>
+                  <c:v>0.36648973032619847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.482604</c:v>
+                  <c:v>0.48260398707668922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.480386</c:v>
+                  <c:v>0.48038550240047395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.478554</c:v>
+                  <c:v>0.47855390524889047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.489994</c:v>
+                  <c:v>0.48999416567925186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.514822</c:v>
+                  <c:v>0.51482156386701983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.523012</c:v>
+                  <c:v>0.52301150297659937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-360D-4567-9662-4DE3F620B97A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DTGDP'!$C$1</c:f>
+              <c:f>DTGDP!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1588,7 +1456,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1600,138 +1467,104 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'DTGDP'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00" ";\(0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2007.00 </c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2008.00 </c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.00 </c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.00 </c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011.00 </c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.00 </c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2013.00 </c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2014.00 </c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015.00 </c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2016.00 </c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2017.00 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DTGDP'!$C$2:$C$12</c:f>
+              <c:f>DTGDP!$C$2:$C$12</c:f>
               <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.400426</c:v>
+                  <c:v>0.40042647356585592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.364567</c:v>
+                  <c:v>0.36456707212565986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.459990</c:v>
+                  <c:v>0.45999023641843162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.427810</c:v>
+                  <c:v>0.42781037461117971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.439819</c:v>
+                  <c:v>0.43981927098227275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.556633</c:v>
+                  <c:v>0.55663331317031828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.554126</c:v>
+                  <c:v>0.55412551750609207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.573715</c:v>
+                  <c:v>0.57371543472740572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.579777</c:v>
+                  <c:v>0.57977685684474956</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.603322</c:v>
+                  <c:v>0.60332172340887347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.606652</c:v>
+                  <c:v>0.60665179938865232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-360D-4567-9662-4DE3F620B97A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DTGDP'!$D$1</c:f>
+              <c:f>DTGDP!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1741,7 +1574,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1753,138 +1585,104 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'DTGDP'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00" ";\(0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2007.00 </c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2008.00 </c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.00 </c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.00 </c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011.00 </c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.00 </c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2013.00 </c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2014.00 </c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015.00 </c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2016.00 </c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2017.00 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DTGDP'!$D$2:$D$12</c:f>
+              <c:f>DTGDP!$D$2:$D$12</c:f>
               <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.270423</c:v>
+                  <c:v>0.27042272250232996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.285012</c:v>
+                  <c:v>0.28501237366039811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.325566</c:v>
+                  <c:v>0.32556607589575576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.343980</c:v>
+                  <c:v>0.34397983679204813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.290836</c:v>
+                  <c:v>0.29083551172116412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.268997</c:v>
+                  <c:v>0.2689968149493725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.241583</c:v>
+                  <c:v>0.24158252305919087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.241707</c:v>
+                  <c:v>0.24170734674804897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.231469</c:v>
+                  <c:v>0.23146949616530405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.241931</c:v>
+                  <c:v>0.24193050877464964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.264520</c:v>
+                  <c:v>0.26451993515372912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-360D-4567-9662-4DE3F620B97A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DTGDP'!$E$1</c:f>
+              <c:f>DTGDP!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,7 +1692,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1906,133 +1703,107 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="0.0000%" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'DTGDP'!$A$2:$A$12</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>DTGDP!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00" ";\(0.00\)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2007.00 </c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2008.00 </c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2009.00 </c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010.00 </c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011.00 </c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.00 </c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2013.00 </c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2014.00 </c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015.00 </c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2016.00 </c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2017.00 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DTGDP'!$E$2:$E$12</c:f>
+              <c:f>DTGDP!$E$2:$E$12</c:f>
               <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.281550</c:v>
+                  <c:v>0.28155009549067356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.300507</c:v>
+                  <c:v>0.30050661769547504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.345658</c:v>
+                  <c:v>0.34565816075502603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.373364</c:v>
+                  <c:v>0.37336428987947745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.314708</c:v>
+                  <c:v>0.31470800683500477</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.291065</c:v>
+                  <c:v>0.2910654752738609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.262324</c:v>
+                  <c:v>0.26232423035355162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.294700</c:v>
+                  <c:v>0.29469991804676277</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.287998</c:v>
+                  <c:v>0.28799808224914619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.331271</c:v>
+                  <c:v>0.33127086926869714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.355134</c:v>
+                  <c:v>0.35513354998717012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-360D-4567-9662-4DE3F620B97A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:lineChart>
@@ -2043,7 +1814,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00&quot; &quot;;(0.00)" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00&quot; &quot;;\(0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2061,19 +1832,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734553"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
@@ -2094,7 +1867,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2110,20 +1883,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.175"/>
-        <c:minorUnit val="0.0875"/>
+        <c:majorUnit val="0.17499999999999999"/>
+        <c:minorUnit val="8.7499999999999994E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2140,10 +1914,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0745635"/>
-          <c:y val="0.936978"/>
-          <c:w val="0.879286"/>
-          <c:h val="0.0630216"/>
+          <c:x val="7.4563500000000005E-2"/>
+          <c:y val="0.93697799999999998"/>
+          <c:w val="0.87928600000000001"/>
+          <c:h val="6.3021599999999997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2160,18 +1934,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2186,11 +1962,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2204,18 +1985,24 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186544</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 4"/>
+        <xdr:cNvPr id="2" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9884091" y="397207"/>
-        <a:ext cx="5066946" cy="2265838"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2225,7 +2012,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2239,18 +2026,24 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>11284</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 1"/>
+        <xdr:cNvPr id="4" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6984218" y="221947"/>
-        <a:ext cx="5405494" cy="2265838"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2260,7 +2053,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -2386,7 +2179,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2395,7 +2188,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2404,7 +2197,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2478,7 +2271,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2486,7 +2279,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2505,7 +2298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2535,7 +2328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2561,7 +2354,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2587,7 +2380,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2613,7 +2406,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2639,7 +2432,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2665,7 +2458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2691,7 +2484,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2717,7 +2510,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2743,7 +2536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2756,9 +2549,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2773,7 +2572,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2781,7 +2580,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2800,7 +2599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2826,7 +2625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2852,7 +2651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2878,7 +2677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2904,7 +2703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2930,7 +2729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2956,7 +2755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2982,7 +2781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3008,7 +2807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3034,7 +2833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3047,9 +2846,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3063,7 +2868,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3082,7 +2887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3112,7 +2917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3138,7 +2943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3164,7 +2969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3190,7 +2995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3216,7 +3021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3242,7 +3047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3268,7 +3073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3294,7 +3099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3320,7 +3125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3333,276 +3138,284 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
     <col min="7" max="49" width="15" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="50" max="50" width="8.875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s" s="2">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s" s="2">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="2">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s" s="2">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s" s="2">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s" s="2">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s" s="2">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s" s="2">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s" s="2">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s" s="2">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="3">
-        <v>1849029664.4</v>
+        <v>1849029664.4000001</v>
       </c>
       <c r="H2" s="3">
-        <v>2241837854.3</v>
+        <v>2241837854.3000002</v>
       </c>
       <c r="I2" s="3">
-        <v>2632029310.2</v>
+        <v>2632029310.1999998</v>
       </c>
       <c r="J2" s="3">
-        <v>2890238573.3</v>
+        <v>2890238573.3000002</v>
       </c>
       <c r="K2" s="3">
-        <v>2998355044.3</v>
+        <v>2998355044.3000002</v>
       </c>
       <c r="L2" s="3">
-        <v>3544639145.8</v>
+        <v>3544639145.8000002</v>
       </c>
       <c r="M2" s="3">
-        <v>4086689689.8</v>
+        <v>4086689689.8000002</v>
       </c>
       <c r="N2" s="3">
-        <v>4754428931.3</v>
+        <v>4754428931.3000002</v>
       </c>
       <c r="O2" s="3">
-        <v>5209633062.8</v>
+        <v>5209633062.8000002</v>
       </c>
       <c r="P2" s="3">
         <v>5185722277.5</v>
       </c>
       <c r="Q2" s="3">
-        <v>5867509111.8</v>
+        <v>5867509111.8000002</v>
       </c>
       <c r="R2" s="3">
-        <v>6580740209.6</v>
+        <v>6580740209.6000004</v>
       </c>
       <c r="S2" s="3">
-        <v>6476089777.8</v>
+        <v>6476089777.8000002</v>
       </c>
       <c r="T2" s="3">
         <v>6902629411</v>
       </c>
       <c r="U2" s="3">
-        <v>7960615109.6</v>
+        <v>7960615109.6000004</v>
       </c>
       <c r="V2" s="3">
-        <v>8395502196.9</v>
+        <v>8395502196.8999996</v>
       </c>
       <c r="W2" s="3">
-        <v>8298763054.9</v>
+        <v>8298763054.8999996</v>
       </c>
       <c r="X2" s="3">
-        <v>8106316372.4</v>
+        <v>8106316372.3999996</v>
       </c>
       <c r="Y2" s="3">
-        <v>9057333356.1</v>
+        <v>9057333356.1000004</v>
       </c>
       <c r="Z2" s="3">
         <v>9943050525</v>
       </c>
       <c r="AA2" s="3">
-        <v>9249848286.4</v>
+        <v>9249848286.3999996</v>
       </c>
       <c r="AB2" s="3">
-        <v>8952124828.1</v>
+        <v>8952124828.1000004</v>
       </c>
       <c r="AC2" s="3">
-        <v>10122942033.8</v>
+        <v>10122942033.799999</v>
       </c>
       <c r="AD2" s="3">
         <v>10725993550</v>
       </c>
       <c r="AE2" s="3">
-        <v>11600420988.8</v>
+        <v>11600420988.799999</v>
       </c>
       <c r="AF2" s="3">
         <v>11300134209.5</v>
@@ -3623,108 +3436,108 @@
         <v>21684210688.5</v>
       </c>
       <c r="AL2" s="3">
-        <v>25795379781.1</v>
+        <v>25795379781.099998</v>
       </c>
       <c r="AM2" s="3">
         <v>35735908567.5</v>
       </c>
       <c r="AN2" s="3">
-        <v>39314598514.4</v>
+        <v>39314598514.400002</v>
       </c>
       <c r="AO2" s="3">
-        <v>42262761571.6</v>
+        <v>42262761571.599998</v>
       </c>
       <c r="AP2" s="3">
-        <v>43925393891.1</v>
+        <v>43925393891.099998</v>
       </c>
       <c r="AQ2" s="3">
-        <v>46661458616.2</v>
+        <v>46661458616.199997</v>
       </c>
       <c r="AR2" s="3">
-        <v>50765545978.7</v>
+        <v>50765545978.699997</v>
       </c>
       <c r="AS2" s="3">
-        <v>52919692662.2</v>
+        <v>52919692662.199997</v>
       </c>
       <c r="AT2" s="3">
         <v>56117855647</v>
       </c>
       <c r="AU2" s="3">
-        <v>56299454219.9</v>
+        <v>56299454219.900002</v>
       </c>
       <c r="AV2" s="3">
-        <v>56592086411.4</v>
-      </c>
-      <c r="AW2" t="s" s="2">
+        <v>56592086411.400002</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="3">
         <v>29061718.5</v>
       </c>
       <c r="H3" s="3">
-        <v>38197055.1</v>
+        <v>38197055.100000001</v>
       </c>
       <c r="I3" s="3">
         <v>37828578.5</v>
       </c>
       <c r="J3" s="3">
-        <v>34879303.7</v>
+        <v>34879303.700000003</v>
       </c>
       <c r="K3" s="3">
-        <v>24764306.3</v>
+        <v>24764306.300000001</v>
       </c>
       <c r="L3" s="3">
-        <v>22660368.2</v>
+        <v>22660368.199999999</v>
       </c>
       <c r="M3" s="3">
-        <v>33344902.4</v>
+        <v>33344902.399999999</v>
       </c>
       <c r="N3" s="3">
-        <v>40316675.9</v>
+        <v>40316675.899999999</v>
       </c>
       <c r="O3" s="3">
-        <v>42911979.9</v>
+        <v>42911979.899999999</v>
       </c>
       <c r="P3" s="3">
-        <v>35812212.9</v>
+        <v>35812212.899999999</v>
       </c>
       <c r="Q3" s="3">
         <v>23453394</v>
       </c>
       <c r="R3" s="3">
-        <v>23053251.9</v>
+        <v>23053251.899999999</v>
       </c>
       <c r="S3" s="3">
-        <v>20229838.7</v>
+        <v>20229838.699999999</v>
       </c>
       <c r="T3" s="3">
-        <v>18454827.9</v>
+        <v>18454827.899999999</v>
       </c>
       <c r="U3" s="3">
         <v>11569459.5</v>
       </c>
       <c r="V3" s="3">
-        <v>13270134.8</v>
+        <v>13270134.800000001</v>
       </c>
       <c r="W3" s="3">
         <v>12151072.4</v>
@@ -3733,52 +3546,52 @@
         <v>14002757.9</v>
       </c>
       <c r="Y3" s="3">
-        <v>24686360.9</v>
+        <v>24686360.899999999</v>
       </c>
       <c r="Z3" s="3">
-        <v>27584265.2</v>
+        <v>27584265.199999999</v>
       </c>
       <c r="AA3" s="3">
-        <v>27190546.8</v>
+        <v>27190546.800000001</v>
       </c>
       <c r="AB3" s="3">
-        <v>39324219.2</v>
+        <v>39324219.200000003</v>
       </c>
       <c r="AC3" s="3">
-        <v>70084282.59999999</v>
+        <v>70084282.599999994</v>
       </c>
       <c r="AD3" s="3">
-        <v>88122246.3</v>
+        <v>88122246.299999997</v>
       </c>
       <c r="AE3" s="3">
-        <v>99449151.59999999</v>
+        <v>99449151.599999994</v>
       </c>
       <c r="AF3" s="3">
-        <v>99698796.09999999</v>
+        <v>99698796.099999994</v>
       </c>
       <c r="AG3" s="3">
-        <v>103154256.6</v>
+        <v>103154256.59999999</v>
       </c>
       <c r="AH3" s="3">
-        <v>271623707.3</v>
+        <v>271623707.30000001</v>
       </c>
       <c r="AI3" s="3">
-        <v>313267189.9</v>
+        <v>313267189.89999998</v>
       </c>
       <c r="AJ3" s="3">
-        <v>602965075.2</v>
+        <v>602965075.20000005</v>
       </c>
       <c r="AK3" s="3">
         <v>1443092440.3</v>
       </c>
       <c r="AL3" s="3">
-        <v>1875694551.9</v>
+        <v>1875694551.9000001</v>
       </c>
       <c r="AM3" s="3">
-        <v>2716626375.7</v>
+        <v>2716626375.6999998</v>
       </c>
       <c r="AN3" s="3">
-        <v>3633004552.6</v>
+        <v>3633004552.5999999</v>
       </c>
       <c r="AO3" s="3">
         <v>4307694238.5</v>
@@ -3787,48 +3600,48 @@
         <v>4523983040.5</v>
       </c>
       <c r="AQ3" s="3">
-        <v>4679819369.1</v>
+        <v>4679819369.1000004</v>
       </c>
       <c r="AR3" s="3">
-        <v>5081537216.7</v>
+        <v>5081537216.6999998</v>
       </c>
       <c r="AS3" s="3">
-        <v>6067017951.6</v>
+        <v>6067017951.6000004</v>
       </c>
       <c r="AT3" s="3">
-        <v>6382384375.8</v>
+        <v>6382384375.8000002</v>
       </c>
       <c r="AU3" s="3">
-        <v>6832918923.4</v>
+        <v>6832918923.3999996</v>
       </c>
       <c r="AV3" s="3">
-        <v>7215683975.8</v>
-      </c>
-      <c r="AW3" t="s" s="2">
+        <v>7215683975.8000002</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="3">
-        <v>9931198662.299999</v>
+        <v>9931198662.2999992</v>
       </c>
       <c r="H4" s="3">
         <v>10580767699.9</v>
@@ -3852,88 +3665,88 @@
         <v>16797670141.1</v>
       </c>
       <c r="O4" s="3">
-        <v>17065165352.3</v>
+        <v>17065165352.299999</v>
       </c>
       <c r="P4" s="3">
-        <v>18348188708.1</v>
+        <v>18348188708.099998</v>
       </c>
       <c r="Q4" s="3">
-        <v>20663375831.9</v>
+        <v>20663375831.900002</v>
       </c>
       <c r="R4" s="3">
-        <v>23363317172.7</v>
+        <v>23363317172.700001</v>
       </c>
       <c r="S4" s="3">
-        <v>24919617589.9</v>
+        <v>24919617589.900002</v>
       </c>
       <c r="T4" s="3">
-        <v>24551561529.1</v>
+        <v>24551561529.099998</v>
       </c>
       <c r="U4" s="3">
-        <v>27390827116.9</v>
+        <v>27390827116.900002</v>
       </c>
       <c r="V4" s="3">
-        <v>30241086482.6</v>
+        <v>30241086482.599998</v>
       </c>
       <c r="W4" s="3">
-        <v>29850953918.3</v>
+        <v>29850953918.299999</v>
       </c>
       <c r="X4" s="3">
-        <v>30095124742.1</v>
+        <v>30095124742.099998</v>
       </c>
       <c r="Y4" s="3">
-        <v>32310194703.8</v>
+        <v>32310194703.799999</v>
       </c>
       <c r="Z4" s="3">
-        <v>34192272492.3</v>
+        <v>34192272492.299999</v>
       </c>
       <c r="AA4" s="3">
-        <v>33111988980.4</v>
+        <v>33111988980.400002</v>
       </c>
       <c r="AB4" s="3">
-        <v>32046178980.2</v>
+        <v>32046178980.200001</v>
       </c>
       <c r="AC4" s="3">
-        <v>33967034723.9</v>
+        <v>33967034723.900002</v>
       </c>
       <c r="AD4" s="3">
-        <v>36668571730.4</v>
+        <v>36668571730.400002</v>
       </c>
       <c r="AE4" s="3">
-        <v>36561942040.2</v>
+        <v>36561942040.199997</v>
       </c>
       <c r="AF4" s="3">
-        <v>34260045290.9</v>
+        <v>34260045290.900002</v>
       </c>
       <c r="AG4" s="3">
-        <v>37430775913.1</v>
+        <v>37430775913.099998</v>
       </c>
       <c r="AH4" s="3">
-        <v>42306089047.4</v>
+        <v>42306089047.400002</v>
       </c>
       <c r="AI4" s="3">
         <v>49826301249</v>
       </c>
       <c r="AJ4" s="3">
-        <v>56662922386.2</v>
+        <v>56662922386.199997</v>
       </c>
       <c r="AK4" s="3">
         <v>63124246853.5</v>
       </c>
       <c r="AL4" s="3">
-        <v>64742561800.2</v>
+        <v>64742561800.199997</v>
       </c>
       <c r="AM4" s="3">
-        <v>63669520213.6</v>
+        <v>63669520213.599998</v>
       </c>
       <c r="AN4" s="3">
         <v>60087820820.5</v>
       </c>
       <c r="AO4" s="3">
-        <v>64202720545.2</v>
+        <v>64202720545.199997</v>
       </c>
       <c r="AP4" s="3">
-        <v>68614186760.2</v>
+        <v>68614186760.199997</v>
       </c>
       <c r="AQ4" s="3">
         <v>75052145049.5</v>
@@ -3942,120 +3755,120 @@
         <v>91662069234.5</v>
       </c>
       <c r="AS4" s="3">
-        <v>99223959504.7</v>
+        <v>99223959504.699997</v>
       </c>
       <c r="AT4" s="3">
-        <v>107882935628.6</v>
+        <v>107882935628.60001</v>
       </c>
       <c r="AU4" s="3">
         <v>115695344143.7</v>
       </c>
       <c r="AV4" s="3">
-        <v>130433056375.4</v>
-      </c>
-      <c r="AW4" t="s" s="2">
+        <v>130433056375.39999</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="3">
-        <v>149430945.3</v>
+        <v>149430945.30000001</v>
       </c>
       <c r="H5" s="3">
-        <v>142538092.9</v>
+        <v>142538092.90000001</v>
       </c>
       <c r="I5" s="3">
-        <v>183526646.8</v>
+        <v>183526646.80000001</v>
       </c>
       <c r="J5" s="3">
-        <v>180689717.9</v>
+        <v>180689717.90000001</v>
       </c>
       <c r="K5" s="3">
-        <v>143266648.8</v>
+        <v>143266648.80000001</v>
       </c>
       <c r="L5" s="3">
-        <v>151726191.1</v>
+        <v>151726191.09999999</v>
       </c>
       <c r="M5" s="3">
-        <v>148616183.2</v>
+        <v>148616183.19999999</v>
       </c>
       <c r="N5" s="3">
-        <v>144943981.1</v>
+        <v>144943981.09999999</v>
       </c>
       <c r="O5" s="3">
-        <v>141221659.6</v>
+        <v>141221659.59999999</v>
       </c>
       <c r="P5" s="3">
-        <v>179186617.6</v>
+        <v>179186617.59999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>228017067.9</v>
+        <v>228017067.90000001</v>
       </c>
       <c r="R5" s="3">
-        <v>243972711.4</v>
+        <v>243972711.40000001</v>
       </c>
       <c r="S5" s="3">
-        <v>281658096.9</v>
+        <v>281658096.89999998</v>
       </c>
       <c r="T5" s="3">
         <v>373839795</v>
       </c>
       <c r="U5" s="3">
-        <v>432545708.6</v>
+        <v>432545708.60000002</v>
       </c>
       <c r="V5" s="3">
-        <v>417158836.8</v>
+        <v>417158836.80000001</v>
       </c>
       <c r="W5" s="3">
         <v>439801891</v>
       </c>
       <c r="X5" s="3">
-        <v>599300423.8</v>
+        <v>599300423.79999995</v>
       </c>
       <c r="Y5" s="3">
-        <v>589065227.1</v>
+        <v>589065227.10000002</v>
       </c>
       <c r="Z5" s="3">
-        <v>603140475.6</v>
+        <v>603140475.60000002</v>
       </c>
       <c r="AA5" s="3">
-        <v>653213444.8</v>
+        <v>653213444.79999995</v>
       </c>
       <c r="AB5" s="3">
-        <v>94910472.7</v>
+        <v>94910472.700000003</v>
       </c>
       <c r="AC5" s="3">
-        <v>137947155.1</v>
+        <v>137947155.09999999</v>
       </c>
       <c r="AD5" s="3">
-        <v>340927338.7</v>
+        <v>340927338.69999999</v>
       </c>
       <c r="AE5" s="3">
-        <v>523590010.8</v>
+        <v>523590010.80000001</v>
       </c>
       <c r="AF5" s="3">
-        <v>610510191.2</v>
+        <v>610510191.20000005</v>
       </c>
       <c r="AG5" s="3">
-        <v>981308438.1</v>
+        <v>981308438.10000002</v>
       </c>
       <c r="AH5" s="3">
         <v>1103942201.5</v>
@@ -4067,25 +3880,25 @@
         <v>2008517395.2</v>
       </c>
       <c r="AK5" s="3">
-        <v>2182715088.4</v>
+        <v>2182715088.4000001</v>
       </c>
       <c r="AL5" s="3">
-        <v>2623586522.7</v>
+        <v>2623586522.6999998</v>
       </c>
       <c r="AM5" s="3">
         <v>3310938888</v>
       </c>
       <c r="AN5" s="3">
-        <v>4229593003.8</v>
+        <v>4229593003.8000002</v>
       </c>
       <c r="AO5" s="3">
         <v>5138871586.5</v>
       </c>
       <c r="AP5" s="3">
-        <v>5988725755.7</v>
+        <v>5988725755.6999998</v>
       </c>
       <c r="AQ5" s="3">
-        <v>7636999126.9</v>
+        <v>7636999126.8999996</v>
       </c>
       <c r="AR5" s="3">
         <v>10996185969.5</v>
@@ -4097,16 +3910,16 @@
         <v>21619974718</v>
       </c>
       <c r="AU5" s="3">
-        <v>22982050873.2</v>
+        <v>22982050873.200001</v>
       </c>
       <c r="AV5" s="3">
-        <v>27358303315.7</v>
-      </c>
-      <c r="AW5" t="s" s="2">
+        <v>27358303315.700001</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
@@ -4157,7 +3970,7 @@
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -4208,7 +4021,7 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -4259,8 +4072,8 @@
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="2"/>
@@ -4312,8 +4125,8 @@
       <c r="AV9" s="4"/>
       <c r="AW9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:49" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4"/>
@@ -4366,8 +4179,9 @@
       <c r="AW10" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4375,146 +4189,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.8516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.6719" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.3516" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.3516" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1849029664.4</v>
+        <v>1849029664.4000001</v>
       </c>
       <c r="C6" s="6">
         <v>29061718.5</v>
       </c>
       <c r="D6" s="6">
-        <v>9931198662.299999</v>
+        <v>9931198662.2999992</v>
       </c>
       <c r="E6" s="6">
-        <v>149430945.3</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
+        <v>149430945.30000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2241837854.3</v>
+        <v>2241837854.3000002</v>
       </c>
       <c r="C7" s="6">
-        <v>38197055.1</v>
+        <v>38197055.100000001</v>
       </c>
       <c r="D7" s="6">
         <v>10580767699.9</v>
       </c>
       <c r="E7" s="6">
-        <v>142538092.9</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
+        <v>142538092.90000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>2632029310.2</v>
+        <v>2632029310.1999998</v>
       </c>
       <c r="C8" s="6">
         <v>37828578.5</v>
@@ -4523,443 +4340,443 @@
         <v>11703994182.1</v>
       </c>
       <c r="E8" s="6">
-        <v>183526646.8</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
+        <v>183526646.80000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>2890238573.3</v>
+        <v>2890238573.3000002</v>
       </c>
       <c r="C9" s="6">
-        <v>34879303.7</v>
+        <v>34879303.700000003</v>
       </c>
       <c r="D9" s="6">
         <v>12026223274.4</v>
       </c>
       <c r="E9" s="6">
-        <v>180689717.9</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
+        <v>180689717.90000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>2998355044.3</v>
+        <v>2998355044.3000002</v>
       </c>
       <c r="C10" s="6">
-        <v>24764306.3</v>
+        <v>24764306.300000001</v>
       </c>
       <c r="D10" s="6">
         <v>12227885011.6</v>
       </c>
       <c r="E10" s="6">
-        <v>143266648.8</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="2">
+        <v>143266648.80000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>3544639145.8</v>
+        <v>3544639145.8000002</v>
       </c>
       <c r="C11" s="6">
-        <v>22660368.2</v>
+        <v>22660368.199999999</v>
       </c>
       <c r="D11" s="6">
         <v>13464882307</v>
       </c>
       <c r="E11" s="6">
-        <v>151726191.1</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="2">
+        <v>151726191.09999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>4086689689.8</v>
+        <v>4086689689.8000002</v>
       </c>
       <c r="C12" s="6">
-        <v>33344902.4</v>
+        <v>33344902.399999999</v>
       </c>
       <c r="D12" s="6">
         <v>14954407650.6</v>
       </c>
       <c r="E12" s="6">
-        <v>148616183.2</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="2">
+        <v>148616183.19999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>4754428931.3</v>
+        <v>4754428931.3000002</v>
       </c>
       <c r="C13" s="6">
-        <v>40316675.9</v>
+        <v>40316675.899999999</v>
       </c>
       <c r="D13" s="6">
         <v>16797670141.1</v>
       </c>
       <c r="E13" s="6">
-        <v>144943981.1</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="2">
+        <v>144943981.09999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>5209633062.8</v>
+        <v>5209633062.8000002</v>
       </c>
       <c r="C14" s="6">
-        <v>42911979.9</v>
+        <v>42911979.899999999</v>
       </c>
       <c r="D14" s="6">
-        <v>17065165352.3</v>
+        <v>17065165352.299999</v>
       </c>
       <c r="E14" s="6">
-        <v>141221659.6</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="2">
+        <v>141221659.59999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="6">
         <v>5185722277.5</v>
       </c>
       <c r="C15" s="6">
-        <v>35812212.9</v>
+        <v>35812212.899999999</v>
       </c>
       <c r="D15" s="6">
-        <v>18348188708.1</v>
+        <v>18348188708.099998</v>
       </c>
       <c r="E15" s="6">
-        <v>179186617.6</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="2">
+        <v>179186617.59999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>5867509111.8</v>
+        <v>5867509111.8000002</v>
       </c>
       <c r="C16" s="6">
         <v>23453394</v>
       </c>
       <c r="D16" s="6">
-        <v>20663375831.9</v>
+        <v>20663375831.900002</v>
       </c>
       <c r="E16" s="6">
-        <v>228017067.9</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="2">
+        <v>228017067.90000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <v>6580740209.6</v>
+        <v>6580740209.6000004</v>
       </c>
       <c r="C17" s="6">
-        <v>23053251.9</v>
+        <v>23053251.899999999</v>
       </c>
       <c r="D17" s="6">
-        <v>23363317172.7</v>
+        <v>23363317172.700001</v>
       </c>
       <c r="E17" s="6">
-        <v>243972711.4</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="2">
+        <v>243972711.40000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>6476089777.8</v>
+        <v>6476089777.8000002</v>
       </c>
       <c r="C18" s="6">
-        <v>20229838.7</v>
+        <v>20229838.699999999</v>
       </c>
       <c r="D18" s="6">
-        <v>24919617589.9</v>
+        <v>24919617589.900002</v>
       </c>
       <c r="E18" s="6">
-        <v>281658096.9</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="2">
+        <v>281658096.89999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
         <v>6902629411</v>
       </c>
       <c r="C19" s="6">
-        <v>18454827.9</v>
+        <v>18454827.899999999</v>
       </c>
       <c r="D19" s="6">
-        <v>24551561529.1</v>
+        <v>24551561529.099998</v>
       </c>
       <c r="E19" s="6">
         <v>373839795</v>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>7960615109.6</v>
+        <v>7960615109.6000004</v>
       </c>
       <c r="C20" s="6">
         <v>11569459.5</v>
       </c>
       <c r="D20" s="6">
-        <v>27390827116.9</v>
+        <v>27390827116.900002</v>
       </c>
       <c r="E20" s="6">
-        <v>432545708.6</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="2">
+        <v>432545708.60000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>8395502196.9</v>
+        <v>8395502196.8999996</v>
       </c>
       <c r="C21" s="6">
-        <v>13270134.8</v>
+        <v>13270134.800000001</v>
       </c>
       <c r="D21" s="6">
-        <v>30241086482.6</v>
+        <v>30241086482.599998</v>
       </c>
       <c r="E21" s="6">
-        <v>417158836.8</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="2">
+        <v>417158836.80000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6">
-        <v>8298763054.9</v>
+        <v>8298763054.8999996</v>
       </c>
       <c r="C22" s="6">
         <v>12151072.4</v>
       </c>
       <c r="D22" s="6">
-        <v>29850953918.3</v>
+        <v>29850953918.299999</v>
       </c>
       <c r="E22" s="6">
         <v>439801891</v>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>8106316372.4</v>
+        <v>8106316372.3999996</v>
       </c>
       <c r="C23" s="6">
         <v>14002757.9</v>
       </c>
       <c r="D23" s="6">
-        <v>30095124742.1</v>
+        <v>30095124742.099998</v>
       </c>
       <c r="E23" s="6">
-        <v>599300423.8</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="2">
+        <v>599300423.79999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>9057333356.1</v>
+        <v>9057333356.1000004</v>
       </c>
       <c r="C24" s="6">
-        <v>24686360.9</v>
+        <v>24686360.899999999</v>
       </c>
       <c r="D24" s="6">
-        <v>32310194703.8</v>
+        <v>32310194703.799999</v>
       </c>
       <c r="E24" s="6">
-        <v>589065227.1</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="2">
+        <v>589065227.10000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6">
         <v>9943050525</v>
       </c>
       <c r="C25" s="6">
-        <v>27584265.2</v>
+        <v>27584265.199999999</v>
       </c>
       <c r="D25" s="6">
-        <v>34192272492.3</v>
+        <v>34192272492.299999</v>
       </c>
       <c r="E25" s="6">
-        <v>603140475.6</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="2">
+        <v>603140475.60000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="6">
-        <v>9249848286.4</v>
+        <v>9249848286.3999996</v>
       </c>
       <c r="C26" s="6">
-        <v>27190546.8</v>
+        <v>27190546.800000001</v>
       </c>
       <c r="D26" s="6">
-        <v>33111988980.4</v>
+        <v>33111988980.400002</v>
       </c>
       <c r="E26" s="6">
-        <v>653213444.8</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="2">
+        <v>653213444.79999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6">
-        <v>8952124828.1</v>
+        <v>8952124828.1000004</v>
       </c>
       <c r="C27" s="6">
-        <v>39324219.2</v>
+        <v>39324219.200000003</v>
       </c>
       <c r="D27" s="6">
-        <v>32046178980.2</v>
+        <v>32046178980.200001</v>
       </c>
       <c r="E27" s="6">
-        <v>94910472.7</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="2">
+        <v>94910472.700000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="6">
-        <v>10122942033.8</v>
+        <v>10122942033.799999</v>
       </c>
       <c r="C28" s="6">
-        <v>70084282.59999999</v>
+        <v>70084282.599999994</v>
       </c>
       <c r="D28" s="6">
-        <v>33967034723.9</v>
+        <v>33967034723.900002</v>
       </c>
       <c r="E28" s="6">
-        <v>137947155.1</v>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="2">
+        <v>137947155.09999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="6">
         <v>10725993550</v>
       </c>
       <c r="C29" s="6">
-        <v>88122246.3</v>
+        <v>88122246.299999997</v>
       </c>
       <c r="D29" s="6">
-        <v>36668571730.4</v>
+        <v>36668571730.400002</v>
       </c>
       <c r="E29" s="6">
-        <v>340927338.7</v>
-      </c>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="2">
+        <v>340927338.69999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="6">
-        <v>11600420988.8</v>
+        <v>11600420988.799999</v>
       </c>
       <c r="C30" s="6">
-        <v>99449151.59999999</v>
+        <v>99449151.599999994</v>
       </c>
       <c r="D30" s="6">
-        <v>36561942040.2</v>
+        <v>36561942040.199997</v>
       </c>
       <c r="E30" s="6">
-        <v>523590010.8</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="2">
+        <v>523590010.80000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="6">
         <v>11300134209.5</v>
       </c>
       <c r="C31" s="6">
-        <v>99698796.09999999</v>
+        <v>99698796.099999994</v>
       </c>
       <c r="D31" s="6">
-        <v>34260045290.9</v>
+        <v>34260045290.900002</v>
       </c>
       <c r="E31" s="6">
-        <v>610510191.2</v>
-      </c>
-    </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="7">
+        <v>610510191.20000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="8">
         <v>11853449200.4</v>
       </c>
       <c r="C32" s="8">
-        <v>103154256.6</v>
+        <v>103154256.59999999</v>
       </c>
       <c r="D32" s="8">
-        <v>37430775913.1</v>
+        <v>37430775913.099998</v>
       </c>
       <c r="E32" s="8">
-        <v>981308438.1</v>
-      </c>
-    </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="9">
+        <v>981308438.10000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="10">
         <v>14161321567.6</v>
       </c>
       <c r="C33" s="10">
-        <v>271623707.3</v>
+        <v>271623707.30000001</v>
       </c>
       <c r="D33" s="10">
-        <v>42306089047.4</v>
+        <v>42306089047.400002</v>
       </c>
       <c r="E33" s="11">
         <v>1103942201.5</v>
       </c>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="9">
+    <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="10">
         <v>16320821885.1</v>
       </c>
       <c r="C34" s="10">
-        <v>313267189.9</v>
+        <v>313267189.89999998</v>
       </c>
       <c r="D34" s="10">
         <v>49826301249</v>
@@ -4968,25 +4785,25 @@
         <v>1131082172</v>
       </c>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="9">
+    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="10">
         <v>19504201128</v>
       </c>
       <c r="C35" s="10">
-        <v>602965075.2</v>
+        <v>602965075.20000005</v>
       </c>
       <c r="D35" s="10">
-        <v>56662922386.2</v>
+        <v>56662922386.199997</v>
       </c>
       <c r="E35" s="11">
         <v>2008517395.2</v>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="9">
+    <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="10">
@@ -4999,120 +4816,120 @@
         <v>63124246853.5</v>
       </c>
       <c r="E36" s="11">
-        <v>2182715088.4</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="9">
+        <v>2182715088.4000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="10">
-        <v>25795379781.1</v>
+        <v>25795379781.099998</v>
       </c>
       <c r="C37" s="10">
-        <v>1875694551.9</v>
+        <v>1875694551.9000001</v>
       </c>
       <c r="D37" s="10">
-        <v>64742561800.2</v>
+        <v>64742561800.199997</v>
       </c>
       <c r="E37" s="11">
-        <v>2623586522.7</v>
-      </c>
-    </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="9">
+        <v>2623586522.6999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="10">
         <v>35735908567.5</v>
       </c>
       <c r="C38" s="10">
-        <v>2716626375.7</v>
+        <v>2716626375.6999998</v>
       </c>
       <c r="D38" s="10">
-        <v>63669520213.6</v>
+        <v>63669520213.599998</v>
       </c>
       <c r="E38" s="11">
         <v>3310938888</v>
       </c>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="9">
+    <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="10">
-        <v>39314598514.4</v>
+        <v>39314598514.400002</v>
       </c>
       <c r="C39" s="10">
-        <v>3633004552.6</v>
+        <v>3633004552.5999999</v>
       </c>
       <c r="D39" s="10">
         <v>60087820820.5</v>
       </c>
       <c r="E39" s="11">
-        <v>4229593003.8</v>
-      </c>
-    </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="9">
+        <v>4229593003.8000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="10">
-        <v>42262761571.6</v>
+        <v>42262761571.599998</v>
       </c>
       <c r="C40" s="10">
         <v>4307694238.5</v>
       </c>
       <c r="D40" s="10">
-        <v>64202720545.2</v>
+        <v>64202720545.199997</v>
       </c>
       <c r="E40" s="11">
         <v>5138871586.5</v>
       </c>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="9">
+    <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="10">
-        <v>43925393891.1</v>
+        <v>43925393891.099998</v>
       </c>
       <c r="C41" s="10">
         <v>4523983040.5</v>
       </c>
       <c r="D41" s="10">
-        <v>68614186760.2</v>
+        <v>68614186760.199997</v>
       </c>
       <c r="E41" s="11">
-        <v>5988725755.7</v>
-      </c>
-    </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="9">
+        <v>5988725755.6999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="10">
-        <v>46661458616.2</v>
+        <v>46661458616.199997</v>
       </c>
       <c r="C42" s="10">
-        <v>4679819369.1</v>
+        <v>4679819369.1000004</v>
       </c>
       <c r="D42" s="10">
         <v>75052145049.5</v>
       </c>
       <c r="E42" s="11">
-        <v>7636999126.9</v>
-      </c>
-    </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="9">
+        <v>7636999126.8999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="10">
-        <v>50765545978.7</v>
+        <v>50765545978.699997</v>
       </c>
       <c r="C43" s="10">
-        <v>5081537216.7</v>
+        <v>5081537216.6999998</v>
       </c>
       <c r="D43" s="10">
         <v>91662069234.5</v>
@@ -5121,94 +4938,95 @@
         <v>10996185969.5</v>
       </c>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="12">
+    <row r="44" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="13">
-        <v>52919692662.2</v>
+        <v>52919692662.199997</v>
       </c>
       <c r="C44" s="13">
-        <v>6067017951.6</v>
+        <v>6067017951.6000004</v>
       </c>
       <c r="D44" s="13">
-        <v>99223959504.7</v>
+        <v>99223959504.699997</v>
       </c>
       <c r="E44" s="13">
         <v>18131675381</v>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="6">
         <v>56117855647</v>
       </c>
       <c r="C45" s="6">
-        <v>6382384375.8</v>
+        <v>6382384375.8000002</v>
       </c>
       <c r="D45" s="6">
-        <v>107882935628.6</v>
+        <v>107882935628.60001</v>
       </c>
       <c r="E45" s="6">
         <v>21619974718</v>
       </c>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="2">
+    <row r="46" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="6">
-        <v>56299454219.9</v>
+        <v>56299454219.900002</v>
       </c>
       <c r="C46" s="6">
-        <v>6832918923.4</v>
+        <v>6832918923.3999996</v>
       </c>
       <c r="D46" s="6">
         <v>115695344143.7</v>
       </c>
       <c r="E46" s="6">
-        <v>22982050873.2</v>
-      </c>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="2">
+        <v>22982050873.200001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="6">
-        <v>56592086411.4</v>
+        <v>56592086411.400002</v>
       </c>
       <c r="C47" s="6">
-        <v>7215683975.8</v>
+        <v>7215683975.8000002</v>
       </c>
       <c r="D47" s="6">
-        <v>130433056375.4</v>
+        <v>130433056375.39999</v>
       </c>
       <c r="E47" s="6">
-        <v>27358303315.7</v>
-      </c>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="2">
+        <v>27358303315.700001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" s="2" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5216,38 +5034,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="14" customWidth="1"/>
     <col min="2" max="2" width="16" style="14" customWidth="1"/>
-    <col min="3" max="3" width="23.6719" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.8516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="14" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="14" customWidth="1"/>
+    <col min="5" max="6" width="8.875" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4"/>
@@ -5259,8 +5079,8 @@
         <v>30938000000</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
@@ -5272,8 +5092,8 @@
         <v>36599000000</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4"/>
@@ -5285,8 +5105,8 @@
         <v>40012000000</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4"/>
@@ -5298,8 +5118,8 @@
         <v>37369000000</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4"/>
@@ -5311,8 +5131,8 @@
         <v>40572000000</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4"/>
@@ -5324,8 +5144,8 @@
         <v>40565000000</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4"/>
@@ -5337,8 +5157,8 @@
         <v>41543000000</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
@@ -5350,8 +5170,8 @@
         <v>43437000000</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4"/>
@@ -5363,8 +5183,8 @@
         <v>50107000000</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4"/>
@@ -5376,8 +5196,8 @@
         <v>52256000000</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4"/>
@@ -5389,8 +5209,8 @@
         <v>52426000000</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4"/>
@@ -5402,8 +5222,8 @@
         <v>59556000000</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4"/>
@@ -5415,8 +5235,8 @@
         <v>63727000000</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4"/>
@@ -5428,8 +5248,8 @@
         <v>67442000000</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
@@ -5441,8 +5261,8 @@
         <v>67998000000</v>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4"/>
@@ -5454,8 +5274,8 @@
         <v>79451000000</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4"/>
@@ -5467,8 +5287,8 @@
         <v>82968000000</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
@@ -5480,8 +5300,8 @@
         <v>81806000000</v>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
@@ -5493,8 +5313,8 @@
         <v>81490000000</v>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
@@ -5506,8 +5326,8 @@
         <v>82514000000</v>
       </c>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="16">
@@ -5523,8 +5343,8 @@
         <v>79705000000</v>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="16">
@@ -5540,8 +5360,8 @@
         <v>77931000000</v>
       </c>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="16">
@@ -5557,8 +5377,8 @@
         <v>77937000000</v>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="16">
@@ -5574,8 +5394,8 @@
         <v>89727000000</v>
       </c>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="16">
@@ -5591,8 +5411,8 @@
         <v>105612000000</v>
       </c>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="16">
@@ -5608,8 +5428,8 @@
         <v>118481000000</v>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="16">
@@ -5625,8 +5445,8 @@
         <v>137229000000</v>
       </c>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="16">
@@ -5642,8 +5462,8 @@
         <v>152362000000</v>
       </c>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="16">
@@ -5659,8 +5479,8 @@
         <v>170853000000</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="16">
@@ -5676,8 +5496,8 @@
         <v>167875000000</v>
       </c>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="16">
@@ -5693,8 +5513,8 @@
         <v>177166000000</v>
       </c>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="16">
@@ -5710,8 +5530,8 @@
         <v>213588000000</v>
       </c>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="16">
@@ -5727,8 +5547,8 @@
         <v>224384000000</v>
       </c>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="16">
@@ -5744,8 +5564,8 @@
         <v>231218000000</v>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="16">
@@ -5761,8 +5581,8 @@
         <v>244361000000</v>
       </c>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="16">
@@ -5778,8 +5598,8 @@
         <v>270556000000</v>
       </c>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="16">
@@ -5795,8 +5615,8 @@
         <v>278655000000</v>
       </c>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="16">
@@ -5812,8 +5632,8 @@
         <v>304952000000</v>
       </c>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="4"/>
@@ -5821,8 +5641,8 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="4"/>
@@ -5830,8 +5650,8 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="4"/>
@@ -5839,8 +5659,8 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="4"/>
@@ -5848,8 +5668,8 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="4"/>
@@ -5857,32 +5677,32 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="4"/>
@@ -5890,8 +5710,9 @@
       <c r="E48" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5899,33 +5720,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.6719" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.6719" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.6719" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.8516" style="17" customWidth="1"/>
-    <col min="6" max="15" width="8.85156" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="2" width="27.625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="17" customWidth="1"/>
+    <col min="6" max="16" width="8.875" style="17" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="4"/>
@@ -5939,25 +5762,25 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2007</v>
       </c>
       <c r="B2" s="16">
-        <f>'Transposed'!B33-'Transposed'!C33</f>
-        <v>13889697860.3</v>
+        <f>Transposed!B33-Transposed!C33</f>
+        <v>13889697860.300001</v>
       </c>
       <c r="C2" s="16">
         <f>B2+'China Debt Data'!B29</f>
-        <v>14832997860.3</v>
+        <v>14832997860.300001</v>
       </c>
       <c r="D2" s="16">
-        <f>'Transposed'!D33-'Transposed'!E33</f>
-        <v>41202146845.9</v>
+        <f>Transposed!D33-Transposed!E33</f>
+        <v>41202146845.900002</v>
       </c>
       <c r="E2" s="16">
         <f>D2+'China Debt Data'!C29</f>
-        <v>42897535649.15</v>
+        <v>42897535649.150002</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -5970,20 +5793,20 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2008</v>
       </c>
       <c r="B3" s="16">
-        <f>'Transposed'!B34-'Transposed'!C34</f>
-        <v>16007554695.2</v>
+        <f>Transposed!B34-Transposed!C34</f>
+        <v>16007554695.200001</v>
       </c>
       <c r="C3" s="16">
         <f>B3+'China Debt Data'!B30</f>
-        <v>16989554695.2</v>
+        <v>16989554695.200001</v>
       </c>
       <c r="D3" s="16">
-        <f>'Transposed'!D34-'Transposed'!E34</f>
+        <f>Transposed!D34-Transposed!E34</f>
         <v>48695219077</v>
       </c>
       <c r="E3" s="16">
@@ -6001,20 +5824,20 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2009</v>
       </c>
       <c r="B4" s="16">
-        <f>'Transposed'!B35-'Transposed'!C35</f>
-        <v>18901236052.8</v>
+        <f>Transposed!B35-Transposed!C35</f>
+        <v>18901236052.799999</v>
       </c>
       <c r="C4" s="16">
         <f>B4+'China Debt Data'!B31</f>
-        <v>22131510244.8</v>
+        <v>22131510244.799999</v>
       </c>
       <c r="D4" s="16">
-        <f>'Transposed'!D35-'Transposed'!E35</f>
+        <f>Transposed!D35-Transposed!E35</f>
         <v>54654404991</v>
       </c>
       <c r="E4" s="16">
@@ -6032,25 +5855,25 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2010</v>
       </c>
       <c r="B5" s="16">
-        <f>'Transposed'!B36-'Transposed'!C36</f>
-        <v>20241118248.2</v>
+        <f>Transposed!B36-Transposed!C36</f>
+        <v>20241118248.200001</v>
       </c>
       <c r="C5" s="16">
         <f>B5+'China Debt Data'!B32</f>
-        <v>24261126344.2</v>
+        <v>24261126344.200001</v>
       </c>
       <c r="D5" s="16">
-        <f>'Transposed'!D36-'Transposed'!E36</f>
-        <v>60941531765.1</v>
+        <f>Transposed!D36-Transposed!E36</f>
+        <v>60941531765.099998</v>
       </c>
       <c r="E5" s="16">
         <f>D5+'China Debt Data'!C32</f>
-        <v>66147457780.7875</v>
+        <v>66147457780.787498</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -6063,20 +5886,20 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2011</v>
       </c>
       <c r="B6" s="16">
-        <f>'Transposed'!B37-'Transposed'!C37</f>
-        <v>23919685229.2</v>
+        <f>Transposed!B37-Transposed!C37</f>
+        <v>23919685229.199997</v>
       </c>
       <c r="C6" s="16">
         <f>B6+'China Debt Data'!B33</f>
-        <v>28705684359.2</v>
+        <v>28705684359.199997</v>
       </c>
       <c r="D6" s="16">
-        <f>'Transposed'!D37-'Transposed'!E37</f>
+        <f>Transposed!D37-Transposed!E37</f>
         <v>62118975277.5</v>
       </c>
       <c r="E6" s="16">
@@ -6094,25 +5917,25 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2012</v>
       </c>
       <c r="B7" s="16">
-        <f>'Transposed'!B38-'Transposed'!C38</f>
-        <v>33019282191.8</v>
+        <f>Transposed!B38-Transposed!C38</f>
+        <v>33019282191.799999</v>
       </c>
       <c r="C7" s="16">
         <f>B7+'China Debt Data'!B34</f>
-        <v>38084294653.8</v>
+        <v>38084294653.800003</v>
       </c>
       <c r="D7" s="16">
-        <f>'Transposed'!D38-'Transposed'!E38</f>
-        <v>60358581325.6</v>
+        <f>Transposed!D38-Transposed!E38</f>
+        <v>60358581325.599998</v>
       </c>
       <c r="E7" s="16">
         <f>D7+'China Debt Data'!C34</f>
-        <v>65310435603.85</v>
+        <v>65310435603.849998</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -6125,25 +5948,25 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2013</v>
       </c>
       <c r="B8" s="16">
-        <f>'Transposed'!B39-'Transposed'!C39</f>
-        <v>35681593961.8</v>
+        <f>Transposed!B39-Transposed!C39</f>
+        <v>35681593961.800003</v>
       </c>
       <c r="C8" s="16">
         <f>B8+'China Debt Data'!B35</f>
-        <v>41158781063.8</v>
+        <v>41158781063.800003</v>
       </c>
       <c r="D8" s="16">
-        <f>'Transposed'!D39-'Transposed'!E39</f>
-        <v>55858227816.7</v>
+        <f>Transposed!D39-Transposed!E39</f>
+        <v>55858227816.699997</v>
       </c>
       <c r="E8" s="16">
         <f>D8+'China Debt Data'!C35</f>
-        <v>60654083893.8875</v>
+        <v>60654083893.887497</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -6156,25 +5979,25 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2014</v>
       </c>
       <c r="B9" s="16">
-        <f>'Transposed'!B40-'Transposed'!C40</f>
-        <v>37955067333.1</v>
+        <f>Transposed!B40-Transposed!C40</f>
+        <v>37955067333.099998</v>
       </c>
       <c r="C9" s="16">
         <f>B9+'China Debt Data'!B36</f>
-        <v>45502518559.1</v>
+        <v>45502518559.099998</v>
       </c>
       <c r="D9" s="16">
-        <f>'Transposed'!D40-'Transposed'!E40</f>
-        <v>59063848958.7</v>
+        <f>Transposed!D40-Transposed!E40</f>
+        <v>59063848958.699997</v>
       </c>
       <c r="E9" s="16">
         <f>D9+'China Debt Data'!C36</f>
-        <v>72013166673.825</v>
+        <v>72013166673.824997</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -6187,20 +6010,20 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2015</v>
       </c>
       <c r="B10" s="16">
-        <f>'Transposed'!B41-'Transposed'!C41</f>
-        <v>39401410850.6</v>
+        <f>Transposed!B41-Transposed!C41</f>
+        <v>39401410850.599998</v>
       </c>
       <c r="C10" s="16">
         <f>B10+'China Debt Data'!B37</f>
-        <v>46621016612.6</v>
+        <v>46621016612.599998</v>
       </c>
       <c r="D10" s="16">
-        <f>'Transposed'!D41-'Transposed'!E41</f>
+        <f>Transposed!D41-Transposed!E41</f>
         <v>62625461004.5</v>
       </c>
       <c r="E10" s="16">
@@ -6218,25 +6041,25 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2016</v>
       </c>
       <c r="B11" s="16">
-        <f>'Transposed'!B42-'Transposed'!C42</f>
-        <v>41981639247.1</v>
+        <f>Transposed!B42-Transposed!C42</f>
+        <v>41981639247.099998</v>
       </c>
       <c r="C11" s="16">
         <f>B11+'China Debt Data'!B38</f>
-        <v>49198473257.1</v>
+        <v>49198473257.099998</v>
       </c>
       <c r="D11" s="16">
-        <f>'Transposed'!D42-'Transposed'!E42</f>
-        <v>67415145922.6</v>
+        <f>Transposed!D42-Transposed!E42</f>
+        <v>67415145922.599998</v>
       </c>
       <c r="E11" s="16">
         <f>D11+'China Debt Data'!C38</f>
-        <v>92310284076.0688</v>
+        <v>92310284076.068802</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -6249,12 +6072,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2017</v>
       </c>
       <c r="B12" s="16">
-        <f>'Transposed'!B43-'Transposed'!C43</f>
+        <f>Transposed!B43-Transposed!C43</f>
         <v>45684008762</v>
       </c>
       <c r="C12" s="16">
@@ -6262,12 +6085,12 @@
         <v>52989821373</v>
       </c>
       <c r="D12" s="16">
-        <f>'Transposed'!D43-'Transposed'!E43</f>
+        <f>Transposed!D43-Transposed!E43</f>
         <v>80665883265</v>
       </c>
       <c r="E12" s="16">
         <f>D12+'China Debt Data'!C39</f>
-        <v>108298686335.688</v>
+        <v>108298686335.6875</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -6280,7 +6103,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6297,7 +6120,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6314,7 +6137,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6331,7 +6154,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6349,8 +6172,9 @@
       <c r="O16" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6359,36 +6183,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="18" customWidth="1"/>
     <col min="4" max="4" width="22" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="18" customWidth="1"/>
-    <col min="6" max="16" width="8.85156" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="18" customWidth="1"/>
+    <col min="6" max="17" width="8.875" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="4"/>
@@ -6403,25 +6229,25 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>2007</v>
       </c>
       <c r="B2" s="20">
-        <f>'Fixed Data'!B2/'China Debt Data'!$D29</f>
-        <v>0.374961473430878</v>
+        <f>'Debt Stock'!B2/'China Debt Data'!$D29</f>
+        <v>0.37496147343087766</v>
       </c>
       <c r="C2" s="20">
-        <f>'Fixed Data'!C2/'China Debt Data'!$D29</f>
-        <v>0.400426473565856</v>
+        <f>'Debt Stock'!C2/'China Debt Data'!$D29</f>
+        <v>0.40042647356585592</v>
       </c>
       <c r="D2" s="20">
-        <f>'Fixed Data'!D2/'China Debt Data'!$E29</f>
-        <v>0.27042272250233</v>
+        <f>'Debt Stock'!D2/'China Debt Data'!$E29</f>
+        <v>0.27042272250232996</v>
       </c>
       <c r="E2" s="20">
-        <f>'Fixed Data'!E2/'China Debt Data'!$E29</f>
-        <v>0.281550095490674</v>
+        <f>'Debt Stock'!E2/'China Debt Data'!$E29</f>
+        <v>0.28155009549067356</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -6435,25 +6261,25 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2008</v>
       </c>
       <c r="B3" s="20">
-        <f>'Fixed Data'!B3/'China Debt Data'!$D30</f>
-        <v>0.343495015132398</v>
+        <f>'Debt Stock'!B3/'China Debt Data'!$D30</f>
+        <v>0.34349501513239777</v>
       </c>
       <c r="C3" s="20">
-        <f>'Fixed Data'!C3/'China Debt Data'!$D30</f>
-        <v>0.36456707212566</v>
+        <f>'Debt Stock'!C3/'China Debt Data'!$D30</f>
+        <v>0.36456707212565986</v>
       </c>
       <c r="D3" s="20">
-        <f>'Fixed Data'!D3/'China Debt Data'!$E30</f>
-        <v>0.285012373660398</v>
+        <f>'Debt Stock'!D3/'China Debt Data'!$E30</f>
+        <v>0.28501237366039811</v>
       </c>
       <c r="E3" s="20">
-        <f>'Fixed Data'!E3/'China Debt Data'!$E30</f>
-        <v>0.300506617695475</v>
+        <f>'Debt Stock'!E3/'China Debt Data'!$E30</f>
+        <v>0.30050661769547504</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -6467,25 +6293,25 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>2009</v>
       </c>
       <c r="B4" s="20">
-        <f>'Fixed Data'!B4/'China Debt Data'!$D31</f>
-        <v>0.392850914571945</v>
+        <f>'Debt Stock'!B4/'China Debt Data'!$D31</f>
+        <v>0.39285091457194521</v>
       </c>
       <c r="C4" s="20">
-        <f>'Fixed Data'!C4/'China Debt Data'!$D31</f>
-        <v>0.459990236418432</v>
+        <f>'Debt Stock'!C4/'China Debt Data'!$D31</f>
+        <v>0.45999023641843162</v>
       </c>
       <c r="D4" s="20">
-        <f>'Fixed Data'!D4/'China Debt Data'!$E31</f>
-        <v>0.325566075895756</v>
+        <f>'Debt Stock'!D4/'China Debt Data'!$E31</f>
+        <v>0.32556607589575576</v>
       </c>
       <c r="E4" s="20">
-        <f>'Fixed Data'!E4/'China Debt Data'!$E31</f>
-        <v>0.345658160755026</v>
+        <f>'Debt Stock'!E4/'China Debt Data'!$E31</f>
+        <v>0.34565816075502603</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -6499,25 +6325,25 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>2010</v>
       </c>
       <c r="B5" s="20">
-        <f>'Fixed Data'!B5/'China Debt Data'!$D32</f>
-        <v>0.356923263061189</v>
+        <f>'Debt Stock'!B5/'China Debt Data'!$D32</f>
+        <v>0.35692326306118849</v>
       </c>
       <c r="C5" s="20">
-        <f>'Fixed Data'!C5/'China Debt Data'!$D32</f>
-        <v>0.42781037461118</v>
+        <f>'Debt Stock'!C5/'China Debt Data'!$D32</f>
+        <v>0.42781037461117971</v>
       </c>
       <c r="D5" s="20">
-        <f>'Fixed Data'!D5/'China Debt Data'!$E32</f>
-        <v>0.343979836792048</v>
+        <f>'Debt Stock'!D5/'China Debt Data'!$E32</f>
+        <v>0.34397983679204813</v>
       </c>
       <c r="E5" s="20">
-        <f>'Fixed Data'!E5/'China Debt Data'!$E32</f>
-        <v>0.373364289879477</v>
+        <f>'Debt Stock'!E5/'China Debt Data'!$E32</f>
+        <v>0.37336428987947745</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -6531,25 +6357,25 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2011</v>
       </c>
       <c r="B6" s="20">
-        <f>'Fixed Data'!B6/'China Debt Data'!$D33</f>
-        <v>0.366489730326199</v>
+        <f>'Debt Stock'!B6/'China Debt Data'!$D33</f>
+        <v>0.36648973032619847</v>
       </c>
       <c r="C6" s="20">
-        <f>'Fixed Data'!C6/'China Debt Data'!$D33</f>
-        <v>0.439819270982273</v>
+        <f>'Debt Stock'!C6/'China Debt Data'!$D33</f>
+        <v>0.43981927098227275</v>
       </c>
       <c r="D6" s="20">
-        <f>'Fixed Data'!D6/'China Debt Data'!$E33</f>
-        <v>0.290835511721164</v>
+        <f>'Debt Stock'!D6/'China Debt Data'!$E33</f>
+        <v>0.29083551172116412</v>
       </c>
       <c r="E6" s="20">
-        <f>'Fixed Data'!E6/'China Debt Data'!$E33</f>
-        <v>0.314708006835005</v>
+        <f>'Debt Stock'!E6/'China Debt Data'!$E33</f>
+        <v>0.31470800683500477</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6563,25 +6389,25 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>2012</v>
       </c>
       <c r="B7" s="20">
-        <f>'Fixed Data'!B7/'China Debt Data'!$D34</f>
-        <v>0.482603987076689</v>
+        <f>'Debt Stock'!B7/'China Debt Data'!$D34</f>
+        <v>0.48260398707668922</v>
       </c>
       <c r="C7" s="20">
-        <f>'Fixed Data'!C7/'China Debt Data'!$D34</f>
-        <v>0.5566333131703179</v>
+        <f>'Debt Stock'!C7/'China Debt Data'!$D34</f>
+        <v>0.55663331317031828</v>
       </c>
       <c r="D7" s="20">
-        <f>'Fixed Data'!D7/'China Debt Data'!$E34</f>
-        <v>0.268996814949373</v>
+        <f>'Debt Stock'!D7/'China Debt Data'!$E34</f>
+        <v>0.2689968149493725</v>
       </c>
       <c r="E7" s="20">
-        <f>'Fixed Data'!E7/'China Debt Data'!$E34</f>
-        <v>0.291065475273861</v>
+        <f>'Debt Stock'!E7/'China Debt Data'!$E34</f>
+        <v>0.2910654752738609</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -6595,25 +6421,25 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>2013</v>
       </c>
       <c r="B8" s="20">
-        <f>'Fixed Data'!B8/'China Debt Data'!$D35</f>
-        <v>0.480385502400474</v>
+        <f>'Debt Stock'!B8/'China Debt Data'!$D35</f>
+        <v>0.48038550240047395</v>
       </c>
       <c r="C8" s="20">
-        <f>'Fixed Data'!C8/'China Debt Data'!$D35</f>
-        <v>0.554125517506092</v>
+        <f>'Debt Stock'!C8/'China Debt Data'!$D35</f>
+        <v>0.55412551750609207</v>
       </c>
       <c r="D8" s="20">
-        <f>'Fixed Data'!D8/'China Debt Data'!$E35</f>
-        <v>0.241582523059191</v>
+        <f>'Debt Stock'!D8/'China Debt Data'!$E35</f>
+        <v>0.24158252305919087</v>
       </c>
       <c r="E8" s="20">
-        <f>'Fixed Data'!E8/'China Debt Data'!$E35</f>
-        <v>0.262324230353552</v>
+        <f>'Debt Stock'!E8/'China Debt Data'!$E35</f>
+        <v>0.26232423035355162</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -6627,25 +6453,25 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>2014</v>
       </c>
       <c r="B9" s="20">
-        <f>'Fixed Data'!B9/'China Debt Data'!$D36</f>
-        <v>0.47855390524889</v>
+        <f>'Debt Stock'!B9/'China Debt Data'!$D36</f>
+        <v>0.47855390524889047</v>
       </c>
       <c r="C9" s="20">
-        <f>'Fixed Data'!C9/'China Debt Data'!$D36</f>
-        <v>0.573715434727406</v>
+        <f>'Debt Stock'!C9/'China Debt Data'!$D36</f>
+        <v>0.57371543472740572</v>
       </c>
       <c r="D9" s="20">
-        <f>'Fixed Data'!D9/'China Debt Data'!$E36</f>
-        <v>0.241707346748049</v>
+        <f>'Debt Stock'!D9/'China Debt Data'!$E36</f>
+        <v>0.24170734674804897</v>
       </c>
       <c r="E9" s="20">
-        <f>'Fixed Data'!E9/'China Debt Data'!$E36</f>
-        <v>0.294699918046763</v>
+        <f>'Debt Stock'!E9/'China Debt Data'!$E36</f>
+        <v>0.29469991804676277</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -6659,25 +6485,25 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2015</v>
       </c>
       <c r="B10" s="20">
-        <f>'Fixed Data'!B10/'China Debt Data'!$D37</f>
-        <v>0.489994165679252</v>
+        <f>'Debt Stock'!B10/'China Debt Data'!$D37</f>
+        <v>0.48999416567925186</v>
       </c>
       <c r="C10" s="20">
-        <f>'Fixed Data'!C10/'China Debt Data'!$D37</f>
-        <v>0.57977685684475</v>
+        <f>'Debt Stock'!C10/'China Debt Data'!$D37</f>
+        <v>0.57977685684474956</v>
       </c>
       <c r="D10" s="20">
-        <f>'Fixed Data'!D10/'China Debt Data'!$E37</f>
-        <v>0.231469496165304</v>
+        <f>'Debt Stock'!D10/'China Debt Data'!$E37</f>
+        <v>0.23146949616530405</v>
       </c>
       <c r="E10" s="20">
-        <f>'Fixed Data'!E10/'China Debt Data'!$E37</f>
-        <v>0.287998082249146</v>
+        <f>'Debt Stock'!E10/'China Debt Data'!$E37</f>
+        <v>0.28799808224914619</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -6691,25 +6517,25 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>2016</v>
       </c>
       <c r="B11" s="20">
-        <f>'Fixed Data'!B11/'China Debt Data'!$D38</f>
-        <v>0.51482156386702</v>
+        <f>'Debt Stock'!B11/'China Debt Data'!$D38</f>
+        <v>0.51482156386701983</v>
       </c>
       <c r="C11" s="20">
-        <f>'Fixed Data'!C11/'China Debt Data'!$D38</f>
-        <v>0.603321723408874</v>
+        <f>'Debt Stock'!C11/'China Debt Data'!$D38</f>
+        <v>0.60332172340887347</v>
       </c>
       <c r="D11" s="20">
-        <f>'Fixed Data'!D11/'China Debt Data'!$E38</f>
-        <v>0.24193050877465</v>
+        <f>'Debt Stock'!D11/'China Debt Data'!$E38</f>
+        <v>0.24193050877464964</v>
       </c>
       <c r="E11" s="20">
-        <f>'Fixed Data'!E11/'China Debt Data'!$E38</f>
-        <v>0.331270869268697</v>
+        <f>'Debt Stock'!E11/'China Debt Data'!$E38</f>
+        <v>0.33127086926869714</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -6723,25 +6549,25 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>2017</v>
       </c>
       <c r="B12" s="20">
-        <f>'Fixed Data'!B12/'China Debt Data'!$D39</f>
-        <v>0.523011502976599</v>
+        <f>'Debt Stock'!B12/'China Debt Data'!$D39</f>
+        <v>0.52301150297659937</v>
       </c>
       <c r="C12" s="20">
-        <f>'Fixed Data'!C12/'China Debt Data'!$D39</f>
-        <v>0.606651799388652</v>
+        <f>'Debt Stock'!C12/'China Debt Data'!$D39</f>
+        <v>0.60665179938865232</v>
       </c>
       <c r="D12" s="20">
-        <f>'Fixed Data'!D12/'China Debt Data'!$E39</f>
-        <v>0.264519935153729</v>
+        <f>'Debt Stock'!D12/'China Debt Data'!$E39</f>
+        <v>0.26451993515372912</v>
       </c>
       <c r="E12" s="20">
-        <f>'Fixed Data'!E12/'China Debt Data'!$E39</f>
-        <v>0.355133549987172</v>
+        <f>'Debt Stock'!E12/'China Debt Data'!$E39</f>
+        <v>0.35513354998717012</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -6755,7 +6581,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6773,7 +6599,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6791,7 +6617,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6810,13 +6636,14 @@
       <c r="P15" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6825,36 +6652,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="21" customWidth="1"/>
-    <col min="2" max="2" width="23.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.85156" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="21" customWidth="1"/>
     <col min="4" max="4" width="22" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="21" customWidth="1"/>
-    <col min="6" max="16" width="8.85156" style="21" customWidth="1"/>
-    <col min="17" max="16384" width="8.85156" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="21" customWidth="1"/>
+    <col min="6" max="17" width="8.875" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="4"/>
@@ -6869,14 +6696,14 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20">
-        <f>'Transposed'!D26/'China Debt Data'!E22</f>
-        <v>0.415431766895427</v>
+        <f>Transposed!D26/'China Debt Data'!E22</f>
+        <v>0.41543176689542688</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -6890,19 +6717,19 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>1990</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20">
-        <f>'Transposed'!B16/'China Debt Data'!D12</f>
-        <v>0.619720016032953</v>
+        <f>Transposed!B16/'China Debt Data'!D12</f>
+        <v>0.61972001603295312</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20">
-        <f>'Transposed'!D27/'China Debt Data'!E23</f>
-        <v>0.411212213114165</v>
+        <f>Transposed!D27/'China Debt Data'!E23</f>
+        <v>0.41121221311416511</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -6916,19 +6743,19 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>1991</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20">
-        <f>'Transposed'!B17/'China Debt Data'!D13</f>
-        <v>0.634777680100318</v>
+        <f>Transposed!B17/'China Debt Data'!D13</f>
+        <v>0.63477768010031832</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20">
-        <f>'Transposed'!D28/'China Debt Data'!E24</f>
-        <v>0.435826818121046</v>
+        <f>Transposed!D28/'China Debt Data'!E24</f>
+        <v>0.43582681812104651</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -6942,19 +6769,19 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>1992</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20">
-        <f>'Transposed'!B18/'China Debt Data'!D14</f>
-        <v>0.579464010182534</v>
+        <f>Transposed!B18/'China Debt Data'!D14</f>
+        <v>0.57946401018253402</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20">
-        <f>'Transposed'!D29/'China Debt Data'!E25</f>
-        <v>0.408668201660593</v>
+        <f>Transposed!D29/'China Debt Data'!E25</f>
+        <v>0.4086682016605927</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -6968,19 +6795,19 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>1993</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20">
-        <f>'Transposed'!B19/'China Debt Data'!D15</f>
-        <v>0.577722582105792</v>
+        <f>Transposed!B19/'China Debt Data'!D15</f>
+        <v>0.57772258210579175</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20">
-        <f>'Transposed'!D30/'China Debt Data'!E26</f>
-        <v>0.346191171838427</v>
+        <f>Transposed!D30/'China Debt Data'!E26</f>
+        <v>0.3461911718384274</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6994,19 +6821,19 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>1994</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20">
-        <f>'Transposed'!B20/'China Debt Data'!D16</f>
-        <v>0.577651484623757</v>
+        <f>Transposed!B20/'China Debt Data'!D16</f>
+        <v>0.57765148462375737</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
-        <f>'Transposed'!D31/'China Debt Data'!E27</f>
-        <v>0.289160669566428</v>
+        <f>Transposed!D31/'China Debt Data'!E27</f>
+        <v>0.28916066956642839</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -7020,19 +6847,19 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>1995</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20">
-        <f>'Transposed'!B21/'China Debt Data'!D17</f>
-        <v>0.573659186668944</v>
+        <f>Transposed!B21/'China Debt Data'!D17</f>
+        <v>0.57365918666894433</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20">
-        <f>'Transposed'!D32/'China Debt Data'!E28</f>
-        <v>0.272761412770624</v>
+        <f>Transposed!D32/'China Debt Data'!E28</f>
+        <v>0.27276141277062427</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -7046,19 +6873,19 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1996</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20">
-        <f>'Transposed'!B22/'China Debt Data'!D18</f>
-        <v>0.517024674780388</v>
+        <f>Transposed!B22/'China Debt Data'!D18</f>
+        <v>0.51702467478038749</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
-        <f>'Transposed'!D33/'China Debt Data'!E29</f>
-        <v>0.277668244361455</v>
+        <f>Transposed!D33/'China Debt Data'!E29</f>
+        <v>0.27766824436145499</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -7072,19 +6899,19 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>1997</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20">
-        <f>'Transposed'!B23/'China Debt Data'!D19</f>
-        <v>0.45317063799195</v>
+        <f>Transposed!B23/'China Debt Data'!D19</f>
+        <v>0.4531706379919499</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
-        <f>'Transposed'!D34/'China Debt Data'!E30</f>
-        <v>0.291632580340995</v>
+        <f>Transposed!D34/'China Debt Data'!E30</f>
+        <v>0.29163258034099487</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -7098,19 +6925,19 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>1998</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20">
-        <f>'Transposed'!B24/'China Debt Data'!D20</f>
-        <v>0.491445108849702</v>
+        <f>Transposed!B24/'China Debt Data'!D20</f>
+        <v>0.49144510884970161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
-        <f>'Transposed'!D35/'China Debt Data'!E31</f>
-        <v>0.337530438637081</v>
+        <f>Transposed!D35/'China Debt Data'!E31</f>
+        <v>0.33753043863708115</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -7124,19 +6951,19 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>1999</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20">
-        <f>'Transposed'!B25/'China Debt Data'!D21</f>
-        <v>0.536534131502266</v>
+        <f>Transposed!B25/'China Debt Data'!D21</f>
+        <v>0.53653413150226636</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
-        <f>'Transposed'!D36/'China Debt Data'!E32</f>
-        <v>0.356300005946401</v>
+        <f>Transposed!D36/'China Debt Data'!E32</f>
+        <v>0.35630000594640054</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -7150,19 +6977,19 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>2000</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20">
-        <f>'Transposed'!B26/'China Debt Data'!D22</f>
-        <v>0.477510107191162</v>
+        <f>Transposed!B26/'China Debt Data'!D22</f>
+        <v>0.47751010719116205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
-        <f>'Transposed'!D26/'China Debt Data'!E22</f>
-        <v>0.415431766895427</v>
+        <f>Transposed!D26/'China Debt Data'!E22</f>
+        <v>0.41543176689542688</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -7176,19 +7003,19 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>2001</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20">
-        <f>'Transposed'!B27/'China Debt Data'!D23</f>
-        <v>0.481038410967222</v>
+        <f>Transposed!B27/'China Debt Data'!D23</f>
+        <v>0.48103841096722194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20">
-        <f>'Transposed'!D27/'China Debt Data'!E23</f>
-        <v>0.411212213114165</v>
+        <f>Transposed!D27/'China Debt Data'!E23</f>
+        <v>0.41121221311416511</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -7202,19 +7029,19 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>2002</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20">
-        <f>'Transposed'!B28/'China Debt Data'!D24</f>
-        <v>0.51687219983661</v>
+        <f>Transposed!B28/'China Debt Data'!D24</f>
+        <v>0.51687219983660959</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20">
-        <f>'Transposed'!D28/'China Debt Data'!E24</f>
-        <v>0.435826818121046</v>
+        <f>Transposed!D28/'China Debt Data'!E24</f>
+        <v>0.43582681812104651</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -7228,19 +7055,19 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>2003</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20">
-        <f>'Transposed'!B29/'China Debt Data'!D25</f>
-        <v>0.496091464317099</v>
+        <f>Transposed!B29/'China Debt Data'!D25</f>
+        <v>0.49609146431709911</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20">
-        <f>'Transposed'!D29/'China Debt Data'!E25</f>
-        <v>0.408668201660593</v>
+        <f>Transposed!D29/'China Debt Data'!E25</f>
+        <v>0.4086682016605927</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -7254,19 +7081,19 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>2004</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20">
-        <f>'Transposed'!B30/'China Debt Data'!D26</f>
-        <v>0.490400379995773</v>
+        <f>Transposed!B30/'China Debt Data'!D26</f>
+        <v>0.49040037999577252</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
-        <f>'Transposed'!D30/'China Debt Data'!E26</f>
-        <v>0.346191171838427</v>
+        <f>Transposed!D30/'China Debt Data'!E26</f>
+        <v>0.3461911718384274</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -7280,19 +7107,19 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>2005</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20">
-        <f>'Transposed'!B31/'China Debt Data'!D27</f>
-        <v>0.404370521005547</v>
+        <f>Transposed!B31/'China Debt Data'!D27</f>
+        <v>0.4043705210055466</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
-        <f>'Transposed'!D31/'China Debt Data'!E27</f>
-        <v>0.289160669566428</v>
+        <f>Transposed!D31/'China Debt Data'!E27</f>
+        <v>0.28916066956642839</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -7306,19 +7133,19 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>2006</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20">
-        <f>'Transposed'!B32/'China Debt Data'!D28</f>
-        <v>0.36631073891035</v>
+        <f>Transposed!B32/'China Debt Data'!D28</f>
+        <v>0.36631073891034949</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
-        <f>'Transposed'!D32/'China Debt Data'!E28</f>
-        <v>0.272761412770624</v>
+        <f>Transposed!D32/'China Debt Data'!E28</f>
+        <v>0.27276141277062427</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -7332,19 +7159,19 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>2007</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20">
-        <f>'Transposed'!B33/'China Debt Data'!D29</f>
-        <v>0.382294132969792</v>
+        <f>Transposed!B33/'China Debt Data'!D29</f>
+        <v>0.38229413296979187</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
-        <f>'Transposed'!D33/'China Debt Data'!E29</f>
-        <v>0.277668244361455</v>
+        <f>Transposed!D33/'China Debt Data'!E29</f>
+        <v>0.27766824436145499</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -7358,19 +7185,19 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>2008</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20">
-        <f>'Transposed'!B34/'China Debt Data'!D30</f>
-        <v>0.350217198512939</v>
+        <f>Transposed!B34/'China Debt Data'!D30</f>
+        <v>0.35021719851293936</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
-        <f>'Transposed'!D34/'China Debt Data'!E30</f>
-        <v>0.291632580340995</v>
+        <f>Transposed!D34/'China Debt Data'!E30</f>
+        <v>0.29163258034099487</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -7384,19 +7211,19 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>2009</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20">
-        <f>'Transposed'!B35/'China Debt Data'!D31</f>
-        <v>0.405383183921186</v>
+        <f>Transposed!B35/'China Debt Data'!D31</f>
+        <v>0.40538318392118555</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20">
-        <f>'Transposed'!D35/'China Debt Data'!E31</f>
-        <v>0.337530438637081</v>
+        <f>Transposed!D35/'China Debt Data'!E31</f>
+        <v>0.33753043863708115</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -7410,19 +7237,19 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>2010</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20">
-        <f>'Transposed'!B36/'China Debt Data'!D32</f>
-        <v>0.382370140865808</v>
+        <f>Transposed!B36/'China Debt Data'!D32</f>
+        <v>0.38237014086580851</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20">
-        <f>'Transposed'!D36/'China Debt Data'!E32</f>
-        <v>0.356300005946401</v>
+        <f>Transposed!D36/'China Debt Data'!E32</f>
+        <v>0.35630000594640054</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -7436,19 +7263,19 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>2011</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20">
-        <f>'Transposed'!B37/'China Debt Data'!D33</f>
-        <v>0.395228519483047</v>
+        <f>Transposed!B37/'China Debt Data'!D33</f>
+        <v>0.39522851948304655</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20">
-        <f>'Transposed'!D37/'China Debt Data'!E33</f>
-        <v>0.303118910239339</v>
+        <f>Transposed!D37/'China Debt Data'!E33</f>
+        <v>0.30311891023933929</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -7462,19 +7289,19 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>2012</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20">
-        <f>'Transposed'!B38/'China Debt Data'!D34</f>
-        <v>0.5223097175857579</v>
+        <f>Transposed!B38/'China Debt Data'!D34</f>
+        <v>0.52230971758575839</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20">
-        <f>'Transposed'!D38/'China Debt Data'!E34</f>
-        <v>0.28375249667356</v>
+        <f>Transposed!D38/'China Debt Data'!E34</f>
+        <v>0.28375249667355962</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -7488,19 +7315,19 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>2013</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20">
-        <f>'Transposed'!B39/'China Debt Data'!D35</f>
-        <v>0.529297070619438</v>
+        <f>Transposed!B39/'China Debt Data'!D35</f>
+        <v>0.52929707061943809</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20">
-        <f>'Transposed'!D39/'China Debt Data'!E35</f>
-        <v>0.259875186276587</v>
+        <f>Transposed!D39/'China Debt Data'!E35</f>
+        <v>0.25987518627658746</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -7514,19 +7341,19 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>2014</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20">
-        <f>'Transposed'!B40/'China Debt Data'!D36</f>
-        <v>0.532867177370385</v>
+        <f>Transposed!B40/'China Debt Data'!D36</f>
+        <v>0.53286717737038525</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20">
-        <f>'Transposed'!D40/'China Debt Data'!E36</f>
-        <v>0.26273718205933</v>
+        <f>Transposed!D40/'China Debt Data'!E36</f>
+        <v>0.26273718205933022</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -7540,19 +7367,19 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>2015</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20">
-        <f>'Transposed'!B41/'China Debt Data'!D37</f>
-        <v>0.546254214434413</v>
+        <f>Transposed!B41/'China Debt Data'!D37</f>
+        <v>0.5462542144344128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20">
-        <f>'Transposed'!D41/'China Debt Data'!E37</f>
-        <v>0.253604380461716</v>
+        <f>Transposed!D41/'China Debt Data'!E37</f>
+        <v>0.25360438046171585</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -7566,19 +7393,19 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>2016</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20">
-        <f>'Transposed'!B42/'China Debt Data'!D38</f>
+        <f>Transposed!B42/'China Debt Data'!D38</f>
         <v>0.572210269249258</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20">
-        <f>'Transposed'!D42/'China Debt Data'!E38</f>
-        <v>0.269337155441316</v>
+        <f>Transposed!D42/'China Debt Data'!E38</f>
+        <v>0.26933715544131631</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -7592,7 +7419,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7610,17 +7437,17 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="20">
         <f>AVERAGE(C14:C21)</f>
-        <v>0.435949380814417</v>
+        <v>0.43594938081441631</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="20">
         <f>AVERAGE(E19:E26)</f>
-        <v>0.297829909405755</v>
+        <v>0.29782990940575532</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -7634,12 +7461,12 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="20">
         <f>AVERAGE(C15:C20)</f>
-        <v>0.442723239505862</v>
+        <v>0.44272323950586157</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -7656,13 +7483,14 @@
       <c r="P32" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7670,77 +7498,80 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="22" customWidth="1"/>
-    <col min="2" max="9" width="50.8516" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="22" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="22" customWidth="1"/>
+    <col min="2" max="9" width="50.875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7751,7 +7582,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7762,7 +7593,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7773,7 +7604,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7784,7 +7615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7795,7 +7626,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7806,7 +7637,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7817,7 +7648,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7829,8 +7660,9 @@
       <c r="I10" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
